--- a/Equal Weighted S&P 500 Generator/recommended_trades.xlsx
+++ b/Equal Weighted S&P 500 Generator/recommended_trades.xlsx
@@ -1937,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>148.83</v>
+        <v>149.52</v>
       </c>
       <c r="C2" s="2">
-        <v>45138509490</v>
+        <v>44706773853</v>
       </c>
       <c r="D2" s="3">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>19.33</v>
+        <v>19.86</v>
       </c>
       <c r="C3" s="2">
-        <v>12968598968</v>
+        <v>12945075539</v>
       </c>
       <c r="D3" s="3">
-        <v>10244</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,13 +1965,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>245.27</v>
+        <v>246.36</v>
       </c>
       <c r="C4" s="2">
-        <v>15519077743</v>
+        <v>15019871634</v>
       </c>
       <c r="D4" s="3">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1979,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>172.25</v>
+        <v>180.64</v>
       </c>
       <c r="C5" s="2">
-        <v>2934452903519</v>
+        <v>2891361306214</v>
       </c>
       <c r="D5" s="3">
-        <v>1149</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1993,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>140.8</v>
+        <v>137.49</v>
       </c>
       <c r="C6" s="2">
-        <v>240531045414</v>
+        <v>240370547665</v>
       </c>
       <c r="D6" s="3">
-        <v>1406</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2007,13 +2007,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>135.75</v>
+        <v>136.3</v>
       </c>
       <c r="C7" s="2">
-        <v>28755419399</v>
+        <v>28202610153</v>
       </c>
       <c r="D7" s="3">
-        <v>1458</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2021,13 +2021,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>319.32</v>
+        <v>322.7</v>
       </c>
       <c r="C8" s="2">
-        <v>14932177257</v>
+        <v>14789777056</v>
       </c>
       <c r="D8" s="3">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2035,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>140.84</v>
+        <v>136.18</v>
       </c>
       <c r="C9" s="2">
-        <v>251277625412</v>
+        <v>242818303788</v>
       </c>
       <c r="D9" s="3">
-        <v>1405</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,13 +2049,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>371.19</v>
+        <v>387.82</v>
       </c>
       <c r="C10" s="2">
-        <v>249188082127</v>
+        <v>251262890253</v>
       </c>
       <c r="D10" s="3">
-        <v>533</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2063,13 +2063,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>516.3</v>
+        <v>511.1</v>
       </c>
       <c r="C11" s="2">
-        <v>250140935205</v>
+        <v>244685097355</v>
       </c>
       <c r="D11" s="3">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2077,13 +2077,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>174.2</v>
+        <v>168.97</v>
       </c>
       <c r="C12" s="2">
-        <v>62856320831</v>
+        <v>64345008767</v>
       </c>
       <c r="D12" s="3">
-        <v>1136</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2091,13 +2091,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>70.55</v>
+        <v>71.38</v>
       </c>
       <c r="C13" s="2">
-        <v>40345107015</v>
+        <v>39152656083</v>
       </c>
       <c r="D13" s="3">
-        <v>2806</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2105,13 +2105,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>245.93</v>
+        <v>245.37</v>
       </c>
       <c r="C14" s="2">
-        <v>103283005220</v>
+        <v>101322470011</v>
       </c>
       <c r="D14" s="3">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2119,13 +2119,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>268.47</v>
+        <v>272.65</v>
       </c>
       <c r="C15" s="2">
-        <v>58353328799</v>
+        <v>59979871007</v>
       </c>
       <c r="D15" s="3">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2136,7 +2136,7 @@
         <v>91.70999999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>23500833446</v>
+        <v>23169195754</v>
       </c>
       <c r="D16" s="3">
         <v>2159</v>
@@ -2147,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>91.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>46860805871</v>
+        <v>47043631108</v>
       </c>
       <c r="D17" s="3">
-        <v>2161</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="C18" s="2">
-        <v>16117767680</v>
+        <v>15706608809</v>
       </c>
       <c r="D18" s="3">
-        <v>8285</v>
+        <v>8355</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>62.43</v>
+        <v>64.05</v>
       </c>
       <c r="C19" s="2">
-        <v>41302949703</v>
+        <v>42944589125</v>
       </c>
       <c r="D19" s="3">
-        <v>3171</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>61.87</v>
+        <v>62.29</v>
       </c>
       <c r="C20" s="2">
-        <v>51179114738</v>
+        <v>51639022768</v>
       </c>
       <c r="D20" s="3">
-        <v>3200</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>7.59</v>
+        <v>7.27</v>
       </c>
       <c r="C21" s="2">
-        <v>1141283901</v>
+        <v>1142710865</v>
       </c>
       <c r="D21" s="3">
-        <v>26089</v>
+        <v>27237</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,13 +2217,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>163.76</v>
+        <v>165.64</v>
       </c>
       <c r="C22" s="2">
-        <v>9464900059</v>
+        <v>9110962282</v>
       </c>
       <c r="D22" s="3">
-        <v>1209</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2231,13 +2231,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>171.34</v>
+        <v>170.85</v>
       </c>
       <c r="C23" s="2">
-        <v>34799152916</v>
+        <v>35984470454</v>
       </c>
       <c r="D23" s="3">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2245,13 +2245,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>113.52</v>
+        <v>111.86</v>
       </c>
       <c r="C24" s="2">
-        <v>18383904911</v>
+        <v>18102730412</v>
       </c>
       <c r="D24" s="3">
-        <v>1744</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>246.37</v>
+        <v>237.22</v>
       </c>
       <c r="C25" s="2">
-        <v>28805702186</v>
+        <v>28509384183</v>
       </c>
       <c r="D25" s="3">
-        <v>803</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2273,13 +2273,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>552.21</v>
+        <v>560.1</v>
       </c>
       <c r="C26" s="2">
-        <v>44339526922</v>
+        <v>43371965195</v>
       </c>
       <c r="D26" s="3">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2287,13 +2287,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>56.01</v>
+        <v>58.42</v>
       </c>
       <c r="C27" s="2">
-        <v>7198505756</v>
+        <v>7324322026</v>
       </c>
       <c r="D27" s="3">
-        <v>3535</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,13 +2301,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>126.55</v>
+        <v>129.71</v>
       </c>
       <c r="C28" s="2">
-        <v>37505573758</v>
+        <v>36383484235</v>
       </c>
       <c r="D28" s="3">
-        <v>1564</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2315,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>126.89</v>
+        <v>127.45</v>
       </c>
       <c r="C29" s="2">
-        <v>11820599915</v>
+        <v>11850558274</v>
       </c>
       <c r="D29" s="3">
-        <v>1560</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2329,13 +2329,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>184.8</v>
+        <v>185.6</v>
       </c>
       <c r="C30" s="2">
-        <v>41280761854</v>
+        <v>41211268621</v>
       </c>
       <c r="D30" s="3">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2343,13 +2343,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>155.76</v>
+        <v>151.48</v>
       </c>
       <c r="C31" s="2">
-        <v>139321681037</v>
+        <v>136975958154</v>
       </c>
       <c r="D31" s="3">
-        <v>1271</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2357,13 +2357,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>12.34</v>
+        <v>12.29</v>
       </c>
       <c r="C32" s="2">
-        <v>18770788070</v>
+        <v>19235247916</v>
       </c>
       <c r="D32" s="3">
-        <v>16046</v>
+        <v>16112</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,13 +2371,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="2">
-        <v>166269216650</v>
+        <v>160480398944</v>
       </c>
       <c r="D33" s="3">
-        <v>1488</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,13 +2385,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>147.17</v>
+        <v>143.03</v>
       </c>
       <c r="C34" s="2">
-        <v>34247680250</v>
+        <v>33315090747</v>
       </c>
       <c r="D34" s="3">
-        <v>1345</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2399,13 +2399,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>237.32</v>
+        <v>230.4</v>
       </c>
       <c r="C35" s="2">
-        <v>128294651101</v>
+        <v>132301598293</v>
       </c>
       <c r="D35" s="3">
-        <v>834</v>
+        <v>859</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2413,13 +2413,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>333.66</v>
+        <v>324.57</v>
       </c>
       <c r="C36" s="2">
-        <v>36140170584</v>
+        <v>37445934600</v>
       </c>
       <c r="D36" s="3">
-        <v>593</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2427,13 +2427,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>267.49</v>
+        <v>273.08</v>
       </c>
       <c r="C37" s="2">
-        <v>123356069098</v>
+        <v>127053702377</v>
       </c>
       <c r="D37" s="3">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2441,13 +2441,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>3315.53</v>
+        <v>3278.68</v>
       </c>
       <c r="C38" s="2">
-        <v>1680108680559</v>
+        <v>1664717216300</v>
       </c>
       <c r="D38" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2455,13 +2455,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>131.39</v>
+        <v>130.06</v>
       </c>
       <c r="C39" s="2">
-        <v>10182918313</v>
+        <v>10346852842</v>
       </c>
       <c r="D39" s="3">
-        <v>1507</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2469,13 +2469,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>369.77</v>
+        <v>377.66</v>
       </c>
       <c r="C40" s="2">
-        <v>33052583324</v>
+        <v>31792011979</v>
       </c>
       <c r="D40" s="3">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2483,13 +2483,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>440.86</v>
+        <v>453.23</v>
       </c>
       <c r="C41" s="2">
-        <v>110532401594</v>
+        <v>105699469607</v>
       </c>
       <c r="D41" s="3">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2497,13 +2497,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>288.21</v>
+        <v>290.49</v>
       </c>
       <c r="C42" s="2">
-        <v>64311074168</v>
+        <v>63074863468</v>
       </c>
       <c r="D42" s="3">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2511,13 +2511,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>84.98999999999999</v>
+        <v>83.94</v>
       </c>
       <c r="C43" s="2">
-        <v>13519281486</v>
+        <v>13480839627</v>
       </c>
       <c r="D43" s="3">
-        <v>2329</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2525,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>30.87</v>
+        <v>30.64</v>
       </c>
       <c r="C44" s="2">
-        <v>11079599634</v>
+        <v>10948256894</v>
       </c>
       <c r="D44" s="3">
-        <v>6414</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,13 +2539,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>311.84</v>
+        <v>306.98</v>
       </c>
       <c r="C45" s="2">
-        <v>67579755321</v>
+        <v>66797950322</v>
       </c>
       <c r="D45" s="3">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2553,13 +2553,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>85.31</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="C46" s="2">
-        <v>50922340325</v>
+        <v>51442037258</v>
       </c>
       <c r="D46" s="3">
-        <v>2321</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2567,13 +2567,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>172.2</v>
+        <v>169.48</v>
       </c>
       <c r="C47" s="2">
-        <v>46013468374</v>
+        <v>46777984750</v>
       </c>
       <c r="D47" s="3">
-        <v>1149</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2581,13 +2581,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C48" s="2">
-        <v>33015433392</v>
+        <v>32871106049</v>
       </c>
       <c r="D48" s="3">
-        <v>929</v>
+        <v>908</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2595,13 +2595,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>110.42</v>
+        <v>105.43</v>
       </c>
       <c r="C49" s="2">
-        <v>14412352641</v>
+        <v>14389386542</v>
       </c>
       <c r="D49" s="3">
-        <v>1793</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2609,13 +2609,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>64.84</v>
+        <v>66.94</v>
       </c>
       <c r="C50" s="2">
-        <v>51766040636</v>
+        <v>50000094211</v>
       </c>
       <c r="D50" s="3">
-        <v>3053</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2623,13 +2623,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>254.53</v>
+        <v>260.63</v>
       </c>
       <c r="C51" s="2">
-        <v>36037727236</v>
+        <v>35518564258</v>
       </c>
       <c r="D51" s="3">
-        <v>777</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2637,13 +2637,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>625.52</v>
+        <v>628.24</v>
       </c>
       <c r="C52" s="2">
-        <v>262665048986</v>
+        <v>258367157344</v>
       </c>
       <c r="D52" s="3">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2651,10 +2651,10 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>216.12</v>
+        <v>215.95</v>
       </c>
       <c r="C53" s="2">
-        <v>18455382333</v>
+        <v>18060210192</v>
       </c>
       <c r="D53" s="3">
         <v>916</v>
@@ -2665,13 +2665,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>177.7</v>
+        <v>175.8</v>
       </c>
       <c r="C54" s="2">
-        <v>32392206133</v>
+        <v>31881923505</v>
       </c>
       <c r="D54" s="3">
-        <v>1114</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2679,13 +2679,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>176.99</v>
+        <v>178.68</v>
       </c>
       <c r="C55" s="2">
-        <v>138753080037</v>
+        <v>141585513370</v>
       </c>
       <c r="D55" s="3">
-        <v>1118</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,13 +2693,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>2071.7</v>
+        <v>2032.64</v>
       </c>
       <c r="C56" s="2">
-        <v>43006707392</v>
+        <v>42885514604</v>
       </c>
       <c r="D56" s="3">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2707,13 +2707,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>217.7</v>
+        <v>222.1</v>
       </c>
       <c r="C57" s="2">
-        <v>131701767342</v>
+        <v>131954804818</v>
       </c>
       <c r="D57" s="3">
-        <v>909</v>
+        <v>891</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2721,13 +2721,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>49.51</v>
+        <v>49.7</v>
       </c>
       <c r="C58" s="2">
-        <v>408254560022</v>
+        <v>413404722384</v>
       </c>
       <c r="D58" s="3">
-        <v>3999</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2735,13 +2735,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>88.52</v>
+        <v>87.63</v>
       </c>
       <c r="C59" s="2">
-        <v>45834908072</v>
+        <v>44418001486</v>
       </c>
       <c r="D59" s="3">
-        <v>2237</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>107.5</v>
+        <v>106.7</v>
       </c>
       <c r="C60" s="2">
-        <v>25451813305</v>
+        <v>24925625451</v>
       </c>
       <c r="D60" s="3">
-        <v>1842</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,13 +2763,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>266.04</v>
+        <v>261.52</v>
       </c>
       <c r="C61" s="2">
-        <v>74287490407</v>
+        <v>74899920018</v>
       </c>
       <c r="D61" s="3">
-        <v>744</v>
+        <v>757</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2777,13 +2777,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>36.1</v>
+        <v>36.27</v>
       </c>
       <c r="C62" s="2">
-        <v>17687551897</v>
+        <v>18073154404</v>
       </c>
       <c r="D62" s="3">
-        <v>5485</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>70.36</v>
+        <v>68.38</v>
       </c>
       <c r="C63" s="2">
-        <v>33250503452</v>
+        <v>32095418523</v>
       </c>
       <c r="D63" s="3">
-        <v>2814</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,13 +2805,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>234.5</v>
+        <v>232.7</v>
       </c>
       <c r="C64" s="2">
-        <v>34496055178</v>
+        <v>35722783700</v>
       </c>
       <c r="D64" s="3">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2819,10 +2819,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>670.34</v>
+        <v>669.3099999999999</v>
       </c>
       <c r="C65" s="2">
-        <v>20714714453</v>
+        <v>20185344488</v>
       </c>
       <c r="D65" s="3">
         <v>295</v>
@@ -2833,13 +2833,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>64.39</v>
+        <v>62.6</v>
       </c>
       <c r="C66" s="2">
-        <v>52461866702</v>
+        <v>52164982507</v>
       </c>
       <c r="D66" s="3">
-        <v>3075</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2847,13 +2847,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>2550.23</v>
+        <v>2467.63</v>
       </c>
       <c r="C67" s="2">
-        <v>100741040549</v>
+        <v>103360460560</v>
       </c>
       <c r="D67" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2861,13 +2861,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>26.62</v>
+        <v>26.82</v>
       </c>
       <c r="C68" s="2">
-        <v>27068955882</v>
+        <v>27089552376</v>
       </c>
       <c r="D68" s="3">
-        <v>7438</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,13 +2875,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>910.86</v>
+        <v>934.99</v>
       </c>
       <c r="C69" s="2">
-        <v>142280420699</v>
+        <v>141561781083</v>
       </c>
       <c r="D69" s="3">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2889,13 +2889,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>92.48999999999999</v>
+        <v>91.13</v>
       </c>
       <c r="C70" s="2">
-        <v>30779677915</v>
+        <v>29340496852</v>
       </c>
       <c r="D70" s="3">
-        <v>2140</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2903,13 +2903,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>64.95999999999999</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="C71" s="2">
-        <v>139829890310</v>
+        <v>142893758148</v>
       </c>
       <c r="D71" s="3">
-        <v>3048</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,13 +2917,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>176.7</v>
+        <v>173.8</v>
       </c>
       <c r="C72" s="2">
-        <v>20893898326</v>
+        <v>20618757118</v>
       </c>
       <c r="D72" s="3">
-        <v>1120</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2931,13 +2931,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>322.64</v>
+        <v>329.07</v>
       </c>
       <c r="C73" s="2">
-        <v>744691410276</v>
+        <v>743602941399</v>
       </c>
       <c r="D73" s="3">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2945,13 +2945,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>43.6</v>
+        <v>42.87</v>
       </c>
       <c r="C74" s="2">
-        <v>62147192800</v>
+        <v>61237160972</v>
       </c>
       <c r="D74" s="3">
-        <v>4541</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2959,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>49.01</v>
+        <v>50.88</v>
       </c>
       <c r="C75" s="2">
-        <v>12081501499</v>
+        <v>11756802991</v>
       </c>
       <c r="D75" s="3">
-        <v>4040</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,13 +2973,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>131.76</v>
+        <v>126.26</v>
       </c>
       <c r="C76" s="2">
-        <v>20343812214</v>
+        <v>20249809483</v>
       </c>
       <c r="D76" s="3">
-        <v>1502</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2987,13 +2987,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="2">
-        <v>67.78</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C77" s="2">
-        <v>133901402382</v>
+        <v>139307397171</v>
       </c>
       <c r="D77" s="3">
-        <v>2921</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3001,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>36.09</v>
+        <v>36.22</v>
       </c>
       <c r="C78" s="2">
-        <v>17028951917</v>
+        <v>17199732165</v>
       </c>
       <c r="D78" s="3">
-        <v>5486</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3015,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>55.77</v>
+        <v>55.39</v>
       </c>
       <c r="C79" s="2">
-        <v>15298839320</v>
+        <v>15463902952</v>
       </c>
       <c r="D79" s="3">
-        <v>3550</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3029,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>52.52</v>
+        <v>53.04</v>
       </c>
       <c r="C80" s="2">
-        <v>46255567091</v>
+        <v>46812334697</v>
       </c>
       <c r="D80" s="3">
-        <v>3770</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,13 +3043,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>224.87</v>
+        <v>229.95</v>
       </c>
       <c r="C81" s="2">
-        <v>121443709761</v>
+        <v>125629160879</v>
       </c>
       <c r="D81" s="3">
-        <v>880</v>
+        <v>861</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3057,13 +3057,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>210.52</v>
+        <v>203.92</v>
       </c>
       <c r="C82" s="2">
-        <v>87909377842</v>
+        <v>87519826632</v>
       </c>
       <c r="D82" s="3">
-        <v>940</v>
+        <v>971</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3071,13 +3071,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>129.31</v>
+        <v>125.62</v>
       </c>
       <c r="C83" s="2">
-        <v>13374321568</v>
+        <v>13706172030</v>
       </c>
       <c r="D83" s="3">
-        <v>1531</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,13 +3085,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>108.51</v>
+        <v>106.82</v>
       </c>
       <c r="C84" s="2">
-        <v>35806537097</v>
+        <v>36415556152</v>
       </c>
       <c r="D84" s="3">
-        <v>1824</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3099,13 +3099,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>197.48</v>
+        <v>203.83</v>
       </c>
       <c r="C85" s="2">
-        <v>85368052033</v>
+        <v>87988178549</v>
       </c>
       <c r="D85" s="3">
-        <v>1002</v>
+        <v>971</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3113,13 +3113,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="C86" s="2">
-        <v>24922157974</v>
+        <v>24444795465</v>
       </c>
       <c r="D86" s="3">
-        <v>8879</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,13 +3127,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>171.02</v>
+        <v>169.89</v>
       </c>
       <c r="C87" s="2">
-        <v>46430917868</v>
+        <v>46468380302</v>
       </c>
       <c r="D87" s="3">
-        <v>1157</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3141,13 +3141,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>202.03</v>
+        <v>206.38</v>
       </c>
       <c r="C88" s="2">
-        <v>27351282889</v>
+        <v>27611190415</v>
       </c>
       <c r="D88" s="3">
-        <v>980</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3155,13 +3155,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>180.09</v>
+        <v>173.36</v>
       </c>
       <c r="C89" s="2">
-        <v>19222562623</v>
+        <v>19403332319</v>
       </c>
       <c r="D89" s="3">
-        <v>1099</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3169,13 +3169,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>94.89</v>
+        <v>93.64</v>
       </c>
       <c r="C90" s="2">
-        <v>28189817334</v>
+        <v>28071051174</v>
       </c>
       <c r="D90" s="3">
-        <v>2086</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3183,13 +3183,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>70.36</v>
+        <v>71.87</v>
       </c>
       <c r="C91" s="2">
-        <v>15119844165</v>
+        <v>15316091956</v>
       </c>
       <c r="D91" s="3">
-        <v>2814</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3197,13 +3197,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>55.28</v>
+        <v>55.32</v>
       </c>
       <c r="C92" s="2">
-        <v>23357115431</v>
+        <v>23603526274</v>
       </c>
       <c r="D92" s="3">
-        <v>3582</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,13 +3211,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>107.9</v>
+        <v>107.4</v>
       </c>
       <c r="C93" s="2">
-        <v>26038841139</v>
+        <v>25678240981</v>
       </c>
       <c r="D93" s="3">
-        <v>1835</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3225,13 +3225,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>111.88</v>
+        <v>111.25</v>
       </c>
       <c r="C94" s="2">
-        <v>14303812912</v>
+        <v>14462445066</v>
       </c>
       <c r="D94" s="3">
-        <v>1769</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3239,13 +3239,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>634.85</v>
+        <v>620.9</v>
       </c>
       <c r="C95" s="2">
-        <v>113077002150</v>
+        <v>109683571990</v>
       </c>
       <c r="D95" s="3">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3253,13 +3253,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>240.17</v>
+        <v>238.77</v>
       </c>
       <c r="C96" s="2">
-        <v>77495444197</v>
+        <v>80932318013</v>
       </c>
       <c r="D96" s="3">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3267,13 +3267,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>119.86</v>
+        <v>123.85</v>
       </c>
       <c r="C97" s="2">
-        <v>19687934210</v>
+        <v>19223443658</v>
       </c>
       <c r="D97" s="3">
-        <v>1652</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,13 +3281,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>85.81999999999999</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="C98" s="2">
-        <v>71563372832</v>
+        <v>72239444888</v>
       </c>
       <c r="D98" s="3">
-        <v>2307</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3295,13 +3295,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>186.8</v>
+        <v>180.2</v>
       </c>
       <c r="C99" s="2">
-        <v>22172165044</v>
+        <v>22603465642</v>
       </c>
       <c r="D99" s="3">
-        <v>1060</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3309,13 +3309,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>99.45</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="C100" s="2">
-        <v>12780509921</v>
+        <v>13274272702</v>
       </c>
       <c r="D100" s="3">
-        <v>1991</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3323,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>50.81</v>
+        <v>51.62</v>
       </c>
       <c r="C101" s="2">
-        <v>229259795179</v>
+        <v>238178993746</v>
       </c>
       <c r="D101" s="3">
-        <v>3897</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,13 +3337,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>231.86</v>
+        <v>226.45</v>
       </c>
       <c r="C102" s="2">
-        <v>81248660313</v>
+        <v>84502566711</v>
       </c>
       <c r="D102" s="3">
-        <v>854</v>
+        <v>874</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3351,13 +3351,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>1640.56</v>
+        <v>1625.86</v>
       </c>
       <c r="C103" s="2">
-        <v>46944396602</v>
+        <v>47164614042</v>
       </c>
       <c r="D103" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3365,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>237.56</v>
+        <v>242.92</v>
       </c>
       <c r="C104" s="2">
-        <v>34785299033</v>
+        <v>33638011501</v>
       </c>
       <c r="D104" s="3">
-        <v>833</v>
+        <v>815</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3379,13 +3379,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>67.04000000000001</v>
+        <v>67.63</v>
       </c>
       <c r="C105" s="2">
-        <v>19196729341</v>
+        <v>19340360948</v>
       </c>
       <c r="D105" s="3">
-        <v>2953</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3393,13 +3393,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>79.11</v>
+        <v>80.06999999999999</v>
       </c>
       <c r="C106" s="2">
-        <v>45266970076</v>
+        <v>45993758924</v>
       </c>
       <c r="D106" s="3">
-        <v>2503</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3407,13 +3407,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>28.48</v>
+        <v>28.64</v>
       </c>
       <c r="C107" s="2">
-        <v>17747484391</v>
+        <v>18163173197</v>
       </c>
       <c r="D107" s="3">
-        <v>6952</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3421,13 +3421,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>160.92</v>
+        <v>156.02</v>
       </c>
       <c r="C108" s="2">
-        <v>68293849523</v>
+        <v>68610818151</v>
       </c>
       <c r="D108" s="3">
-        <v>1230</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3435,13 +3435,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>22.35</v>
+        <v>23.08</v>
       </c>
       <c r="C109" s="2">
-        <v>9238977711</v>
+        <v>9198316121</v>
       </c>
       <c r="D109" s="3">
-        <v>8859</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3449,13 +3449,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>408.68</v>
+        <v>409.62</v>
       </c>
       <c r="C110" s="2">
-        <v>22831019284</v>
+        <v>22702164877</v>
       </c>
       <c r="D110" s="3">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3463,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>82.58</v>
+        <v>80.83</v>
       </c>
       <c r="C111" s="2">
-        <v>107342890211</v>
+        <v>110671268489</v>
       </c>
       <c r="D111" s="3">
-        <v>2397</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,13 +3477,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>550.28</v>
+        <v>538.4299999999999</v>
       </c>
       <c r="C112" s="2">
-        <v>241907405979</v>
+        <v>248641454752</v>
       </c>
       <c r="D112" s="3">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3491,13 +3491,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>10.39</v>
+        <v>10.19</v>
       </c>
       <c r="C113" s="2">
-        <v>8509126063</v>
+        <v>8385529044</v>
       </c>
       <c r="D113" s="3">
-        <v>19058</v>
+        <v>19432</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,13 +3505,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>46.71</v>
+        <v>46.33</v>
       </c>
       <c r="C114" s="2">
-        <v>14408161134</v>
+        <v>13867347915</v>
       </c>
       <c r="D114" s="3">
-        <v>4239</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3519,13 +3519,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>142.91</v>
+        <v>143.19</v>
       </c>
       <c r="C115" s="2">
-        <v>32840196330</v>
+        <v>32855135239</v>
       </c>
       <c r="D115" s="3">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,13 +3533,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>236.05</v>
+        <v>232.22</v>
       </c>
       <c r="C116" s="2">
-        <v>228842213768</v>
+        <v>232685330685</v>
       </c>
       <c r="D116" s="3">
-        <v>838</v>
+        <v>852</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3547,13 +3547,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>64.06</v>
+        <v>63.36</v>
       </c>
       <c r="C117" s="2">
-        <v>265786103286</v>
+        <v>265480673316</v>
       </c>
       <c r="D117" s="3">
-        <v>3091</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3561,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>38.98</v>
+        <v>38.34</v>
       </c>
       <c r="C118" s="2">
-        <v>84943942322</v>
+        <v>86861643475</v>
       </c>
       <c r="D118" s="3">
-        <v>5080</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,13 +3575,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>413.16</v>
+        <v>398.76</v>
       </c>
       <c r="C119" s="2">
-        <v>41672728175</v>
+        <v>42528093449</v>
       </c>
       <c r="D119" s="3">
-        <v>479</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3592,7 +3592,7 @@
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>12582375857</v>
+        <v>12453324447</v>
       </c>
       <c r="D120" s="3">
         <v>18001</v>
@@ -3603,13 +3603,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>91.09999999999999</v>
+        <v>88.06999999999999</v>
       </c>
       <c r="C121" s="2">
-        <v>47357166203</v>
+        <v>48178466306</v>
       </c>
       <c r="D121" s="3">
-        <v>2173</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3617,13 +3617,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>48.58</v>
+        <v>49.77</v>
       </c>
       <c r="C122" s="2">
-        <v>36065161021</v>
+        <v>35890177891</v>
       </c>
       <c r="D122" s="3">
-        <v>4076</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3631,13 +3631,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>100.49</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="C123" s="2">
-        <v>12453169161</v>
+        <v>12026030266</v>
       </c>
       <c r="D123" s="3">
-        <v>1970</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3645,13 +3645,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>108.55</v>
+        <v>104.36</v>
       </c>
       <c r="C124" s="2">
-        <v>137909685977</v>
+        <v>139456690134</v>
       </c>
       <c r="D124" s="3">
-        <v>1824</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,10 +3659,10 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>128.69</v>
+        <v>128.68</v>
       </c>
       <c r="C125" s="2">
-        <v>247178457417</v>
+        <v>243605094495</v>
       </c>
       <c r="D125" s="3">
         <v>1538</v>
@@ -3673,13 +3673,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>66.3</v>
+        <v>68.2</v>
       </c>
       <c r="C126" s="2">
-        <v>13115397790</v>
+        <v>13114168542</v>
       </c>
       <c r="D126" s="3">
-        <v>2986</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3687,13 +3687,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>81.76000000000001</v>
+        <v>80.66</v>
       </c>
       <c r="C127" s="2">
-        <v>66875222618</v>
+        <v>65428889892</v>
       </c>
       <c r="D127" s="3">
-        <v>2421</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3701,13 +3701,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>42.95</v>
+        <v>43.37</v>
       </c>
       <c r="C128" s="2">
-        <v>27808619663</v>
+        <v>26819283977</v>
       </c>
       <c r="D128" s="3">
-        <v>4610</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3715,13 +3715,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>83.73999999999999</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="C129" s="2">
-        <v>44192246462</v>
+        <v>44047963889</v>
       </c>
       <c r="D129" s="3">
-        <v>2364</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,13 +3729,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>378.72</v>
+        <v>379.57</v>
       </c>
       <c r="C130" s="2">
-        <v>119576303186</v>
+        <v>120379660140</v>
       </c>
       <c r="D130" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3743,13 +3743,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>129.17</v>
+        <v>126.78</v>
       </c>
       <c r="C131" s="2">
-        <v>38467799670</v>
+        <v>38668800707</v>
       </c>
       <c r="D131" s="3">
-        <v>1533</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3757,13 +3757,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>239.56</v>
+        <v>250.09</v>
       </c>
       <c r="C132" s="2">
-        <v>57753051536</v>
+        <v>57650042993</v>
       </c>
       <c r="D132" s="3">
-        <v>826</v>
+        <v>791</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3771,13 +3771,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>158.98</v>
+        <v>157.42</v>
       </c>
       <c r="C133" s="2">
-        <v>19592693359</v>
+        <v>19260070744</v>
       </c>
       <c r="D133" s="3">
-        <v>1245</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3785,13 +3785,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>96.05</v>
+        <v>98.61</v>
       </c>
       <c r="C134" s="2">
-        <v>34920648587</v>
+        <v>34204128102</v>
       </c>
       <c r="D134" s="3">
-        <v>2061</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3799,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>306.38</v>
+        <v>297.58</v>
       </c>
       <c r="C135" s="2">
-        <v>212887543928</v>
+        <v>218051398453</v>
       </c>
       <c r="D135" s="3">
-        <v>646</v>
+        <v>665</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,13 +3813,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>160.77</v>
+        <v>158.8</v>
       </c>
       <c r="C136" s="2">
-        <v>298410554702</v>
+        <v>288716300733</v>
       </c>
       <c r="D136" s="3">
-        <v>1231</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3827,13 +3827,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>30.54</v>
+        <v>30.36</v>
       </c>
       <c r="C137" s="2">
-        <v>15418573584</v>
+        <v>15417773235</v>
       </c>
       <c r="D137" s="3">
-        <v>6483</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3841,13 +3841,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>30.13</v>
+        <v>30.48</v>
       </c>
       <c r="C138" s="2">
-        <v>15741760657</v>
+        <v>15355298195</v>
       </c>
       <c r="D138" s="3">
-        <v>6572</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3855,13 +3855,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>36.06</v>
+        <v>34.59</v>
       </c>
       <c r="C139" s="2">
-        <v>18848734954</v>
+        <v>18836960811</v>
       </c>
       <c r="D139" s="3">
-        <v>5491</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3869,13 +3869,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>168.24</v>
+        <v>165.09</v>
       </c>
       <c r="C140" s="2">
-        <v>46745456840</v>
+        <v>47043035394</v>
       </c>
       <c r="D140" s="3">
-        <v>1177</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,13 +3883,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>144.72</v>
+        <v>146.72</v>
       </c>
       <c r="C141" s="2">
-        <v>32760233301</v>
+        <v>31970856967</v>
       </c>
       <c r="D141" s="3">
-        <v>1368</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3897,13 +3897,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>192</v>
+        <v>186.67</v>
       </c>
       <c r="C142" s="2">
-        <v>27577269255</v>
+        <v>26892985052</v>
       </c>
       <c r="D142" s="3">
-        <v>1031</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3911,13 +3911,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>59.7</v>
+        <v>60.1</v>
       </c>
       <c r="C143" s="2">
-        <v>44699513352</v>
+        <v>44578344781</v>
       </c>
       <c r="D143" s="3">
-        <v>3316</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,13 +3925,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>509.25</v>
+        <v>523.59</v>
       </c>
       <c r="C144" s="2">
-        <v>19199231827</v>
+        <v>19102650369</v>
       </c>
       <c r="D144" s="3">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3939,13 +3939,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>61.26</v>
+        <v>62.49</v>
       </c>
       <c r="C145" s="2">
-        <v>23567741051</v>
+        <v>23746487273</v>
       </c>
       <c r="D145" s="3">
-        <v>3232</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3953,13 +3953,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>150.46</v>
+        <v>150.76</v>
       </c>
       <c r="C146" s="2">
-        <v>19428924154</v>
+        <v>18890859050</v>
       </c>
       <c r="D146" s="3">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,13 +3967,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>122.07</v>
+        <v>123.26</v>
       </c>
       <c r="C147" s="2">
-        <v>24307658992</v>
+        <v>24324079090</v>
       </c>
       <c r="D147" s="3">
-        <v>1622</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3981,13 +3981,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>107.8</v>
+        <v>106.4</v>
       </c>
       <c r="C148" s="2">
-        <v>82382287929</v>
+        <v>83070531777</v>
       </c>
       <c r="D148" s="3">
-        <v>1836</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,10 +3995,10 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>115.44</v>
+        <v>115.45</v>
       </c>
       <c r="C149" s="2">
-        <v>11693914488</v>
+        <v>11842768138</v>
       </c>
       <c r="D149" s="3">
         <v>1715</v>
@@ -4009,13 +4009,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>49.36</v>
+        <v>51.11</v>
       </c>
       <c r="C150" s="2">
-        <v>33623593402</v>
+        <v>33247812552</v>
       </c>
       <c r="D150" s="3">
-        <v>4011</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4023,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>34.07</v>
+        <v>33.45</v>
       </c>
       <c r="C151" s="2">
-        <v>8630167359</v>
+        <v>8522604133</v>
       </c>
       <c r="D151" s="3">
-        <v>5812</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,13 +4037,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>476.11</v>
+        <v>483.96</v>
       </c>
       <c r="C152" s="2">
-        <v>46339422110</v>
+        <v>45751899913</v>
       </c>
       <c r="D152" s="3">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4051,13 +4051,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>133.77</v>
+        <v>135.1</v>
       </c>
       <c r="C153" s="2">
-        <v>38465208574</v>
+        <v>37578179585</v>
       </c>
       <c r="D153" s="3">
-        <v>1480</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,13 +4065,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>67.31</v>
+        <v>66.94</v>
       </c>
       <c r="C154" s="2">
-        <v>45082974496</v>
+        <v>43155409856</v>
       </c>
       <c r="D154" s="3">
-        <v>2941</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4079,13 +4079,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>235.11</v>
+        <v>230.17</v>
       </c>
       <c r="C155" s="2">
-        <v>67692522060</v>
+        <v>65891231193</v>
       </c>
       <c r="D155" s="3">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4093,13 +4093,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>87.06</v>
+        <v>87.55</v>
       </c>
       <c r="C156" s="2">
-        <v>31035166560</v>
+        <v>30568098964</v>
       </c>
       <c r="D156" s="3">
-        <v>2274</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4107,13 +4107,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>278.92</v>
+        <v>272.83</v>
       </c>
       <c r="C157" s="2">
-        <v>34157052930</v>
+        <v>33640167760</v>
       </c>
       <c r="D157" s="3">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,13 +4121,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C158" s="2">
-        <v>25721170906</v>
+        <v>25129609875</v>
       </c>
       <c r="D158" s="3">
-        <v>3000</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4135,13 +4135,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>369.84</v>
+        <v>355.09</v>
       </c>
       <c r="C159" s="2">
-        <v>134380565667</v>
+        <v>130074448062</v>
       </c>
       <c r="D159" s="3">
-        <v>535</v>
+        <v>557</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4149,13 +4149,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>127.75</v>
+        <v>127.04</v>
       </c>
       <c r="C160" s="2">
-        <v>16781654521</v>
+        <v>16974860269</v>
       </c>
       <c r="D160" s="3">
-        <v>1550</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4163,13 +4163,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>99.91</v>
+        <v>97.22</v>
       </c>
       <c r="C161" s="2">
-        <v>57578809305</v>
+        <v>57567200248</v>
       </c>
       <c r="D161" s="3">
-        <v>1981</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4177,13 +4177,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>101.48</v>
+        <v>100.24</v>
       </c>
       <c r="C162" s="2">
-        <v>60115231335</v>
+        <v>57566550914</v>
       </c>
       <c r="D162" s="3">
-        <v>1951</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,13 +4191,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>792.33</v>
+        <v>801.7</v>
       </c>
       <c r="C163" s="2">
-        <v>71983065709</v>
+        <v>72266795858</v>
       </c>
       <c r="D163" s="3">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4205,13 +4205,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>92.64</v>
+        <v>91.3</v>
       </c>
       <c r="C164" s="2">
-        <v>35043965765</v>
+        <v>34540188601</v>
       </c>
       <c r="D164" s="3">
-        <v>2137</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,13 +4219,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>92.16</v>
+        <v>92.72</v>
       </c>
       <c r="C165" s="2">
-        <v>31356331380</v>
+        <v>31817188317</v>
       </c>
       <c r="D165" s="3">
-        <v>2148</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4233,13 +4233,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>346.92</v>
+        <v>348.64</v>
       </c>
       <c r="C166" s="2">
-        <v>22985293686</v>
+        <v>22485732475</v>
       </c>
       <c r="D166" s="3">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4247,13 +4247,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>49.28</v>
+        <v>49.74</v>
       </c>
       <c r="C167" s="2">
-        <v>11203923889</v>
+        <v>11125086761</v>
       </c>
       <c r="D167" s="3">
-        <v>4018</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4261,13 +4261,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>175.17</v>
+        <v>174.94</v>
       </c>
       <c r="C168" s="2">
-        <v>68234564056</v>
+        <v>69255026478</v>
       </c>
       <c r="D168" s="3">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4275,13 +4275,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>113.38</v>
+        <v>114.01</v>
       </c>
       <c r="C169" s="2">
-        <v>22758044977</v>
+        <v>23240877483</v>
       </c>
       <c r="D169" s="3">
-        <v>1746</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4289,13 +4289,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>69.23999999999999</v>
+        <v>68.61</v>
       </c>
       <c r="C170" s="2">
-        <v>15721381266</v>
+        <v>15620209317</v>
       </c>
       <c r="D170" s="3">
-        <v>2859</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4303,13 +4303,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>126.7</v>
+        <v>122.7</v>
       </c>
       <c r="C171" s="2">
-        <v>78390446454</v>
+        <v>79047278410</v>
       </c>
       <c r="D171" s="3">
-        <v>1562</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4317,13 +4317,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>57.39</v>
+        <v>58.96</v>
       </c>
       <c r="C172" s="2">
-        <v>56315496195</v>
+        <v>55871952468</v>
       </c>
       <c r="D172" s="3">
-        <v>3450</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,13 +4331,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>134.51</v>
+        <v>129.45</v>
       </c>
       <c r="C173" s="2">
-        <v>22055560039</v>
+        <v>22701501598</v>
       </c>
       <c r="D173" s="3">
-        <v>1472</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4345,13 +4345,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>185.84</v>
+        <v>184.4</v>
       </c>
       <c r="C174" s="2">
-        <v>26332335660</v>
+        <v>27563534770</v>
       </c>
       <c r="D174" s="3">
-        <v>1065</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,13 +4359,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>210.97</v>
+        <v>214.71</v>
       </c>
       <c r="C175" s="2">
-        <v>28113831351</v>
+        <v>28155084793</v>
       </c>
       <c r="D175" s="3">
-        <v>938</v>
+        <v>922</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4373,13 +4373,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>25.01</v>
+        <v>24.82</v>
       </c>
       <c r="C176" s="2">
-        <v>98504718333</v>
+        <v>99911566283</v>
       </c>
       <c r="D176" s="3">
-        <v>7917</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4387,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>123.26</v>
+        <v>124.28</v>
       </c>
       <c r="C177" s="2">
-        <v>23024266634</v>
+        <v>22255399461</v>
       </c>
       <c r="D177" s="3">
-        <v>1606</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,13 +4401,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>62.74</v>
+        <v>60.83</v>
       </c>
       <c r="C178" s="2">
-        <v>36480321718</v>
+        <v>36524503630</v>
       </c>
       <c r="D178" s="3">
-        <v>3156</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4415,13 +4415,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>337.34</v>
+        <v>333.86</v>
       </c>
       <c r="C179" s="2">
-        <v>979471266947</v>
+        <v>954459369682</v>
       </c>
       <c r="D179" s="3">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4429,13 +4429,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>102.96</v>
+        <v>101.85</v>
       </c>
       <c r="C180" s="2">
-        <v>13774031356</v>
+        <v>14348080490</v>
       </c>
       <c r="D180" s="3">
-        <v>1923</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4443,13 +4443,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>41.89</v>
+        <v>43.77</v>
       </c>
       <c r="C181" s="2">
-        <v>63752627157</v>
+        <v>62580698563</v>
       </c>
       <c r="D181" s="3">
-        <v>4727</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,13 +4457,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>274.59</v>
+        <v>266.83</v>
       </c>
       <c r="C182" s="2">
-        <v>70179439637</v>
+        <v>70254142955</v>
       </c>
       <c r="D182" s="3">
-        <v>721</v>
+        <v>742</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4471,13 +4471,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>43.2</v>
+        <v>42.14</v>
       </c>
       <c r="C183" s="2">
-        <v>23085505653</v>
+        <v>23665029161</v>
       </c>
       <c r="D183" s="3">
-        <v>4583</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,13 +4485,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>240.25</v>
+        <v>243.03</v>
       </c>
       <c r="C184" s="2">
-        <v>14602351834</v>
+        <v>14232250257</v>
       </c>
       <c r="D184" s="3">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4499,13 +4499,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>123.13</v>
+        <v>121.74</v>
       </c>
       <c r="C185" s="2">
-        <v>74099984582</v>
+        <v>75058174478</v>
       </c>
       <c r="D185" s="3">
-        <v>1608</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4513,13 +4513,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>110.58</v>
+        <v>111.66</v>
       </c>
       <c r="C186" s="2">
-        <v>72612584156</v>
+        <v>75225758396</v>
       </c>
       <c r="D186" s="3">
-        <v>1790</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4527,13 +4527,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>50.1</v>
+        <v>49.4</v>
       </c>
       <c r="C187" s="2">
-        <v>34055192118</v>
+        <v>34990553161</v>
       </c>
       <c r="D187" s="3">
-        <v>3952</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4541,13 +4541,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>60.06</v>
+        <v>58.58</v>
       </c>
       <c r="C188" s="2">
-        <v>7738087785</v>
+        <v>7797426545</v>
       </c>
       <c r="D188" s="3">
-        <v>3297</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4555,13 +4555,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>33.06</v>
+        <v>31.68</v>
       </c>
       <c r="C189" s="2">
-        <v>4286806719</v>
+        <v>4163596612</v>
       </c>
       <c r="D189" s="3">
-        <v>5989</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4569,13 +4569,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>247.31</v>
+        <v>243.86</v>
       </c>
       <c r="C190" s="2">
-        <v>19851623818</v>
+        <v>20046318796</v>
       </c>
       <c r="D190" s="3">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4583,13 +4583,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>109.73</v>
+        <v>110.09</v>
       </c>
       <c r="C191" s="2">
-        <v>13974799284</v>
+        <v>13741665056</v>
       </c>
       <c r="D191" s="3">
-        <v>1804</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4600,7 +4600,7 @@
         <v>37</v>
       </c>
       <c r="C192" s="2">
-        <v>21978193776</v>
+        <v>22168889398</v>
       </c>
       <c r="D192" s="3">
         <v>5351</v>
@@ -4611,13 +4611,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>39.02</v>
+        <v>40.52</v>
       </c>
       <c r="C193" s="2">
-        <v>22109377899</v>
+        <v>22407344181</v>
       </c>
       <c r="D193" s="3">
-        <v>5074</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4625,10 +4625,10 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>206.98</v>
+        <v>207</v>
       </c>
       <c r="C194" s="2">
-        <v>35394779620</v>
+        <v>35475141649</v>
       </c>
       <c r="D194" s="3">
         <v>956</v>
@@ -4639,13 +4639,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>135.78</v>
+        <v>140.78</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
       </c>
       <c r="D195" s="3">
-        <v>1458</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4653,13 +4653,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>6.94</v>
+        <v>7.01</v>
       </c>
       <c r="C196" s="2">
-        <v>3162132164</v>
+        <v>3189030328</v>
       </c>
       <c r="D196" s="3">
-        <v>28533</v>
+        <v>28248</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,13 +4667,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>327.68</v>
+        <v>317.66</v>
       </c>
       <c r="C197" s="2">
-        <v>51867941398</v>
+        <v>53905200472</v>
       </c>
       <c r="D197" s="3">
-        <v>604</v>
+        <v>623</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4681,13 +4681,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>74.19</v>
+        <v>72.22</v>
       </c>
       <c r="C198" s="2">
-        <v>26486879476</v>
+        <v>26897539120</v>
       </c>
       <c r="D198" s="3">
-        <v>2669</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4695,13 +4695,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>213.96</v>
+        <v>221.82</v>
       </c>
       <c r="C199" s="2">
-        <v>61682166815</v>
+        <v>60294933982</v>
       </c>
       <c r="D199" s="3">
-        <v>925</v>
+        <v>892</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4709,13 +4709,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>103.3</v>
+        <v>103.8</v>
       </c>
       <c r="C200" s="2">
-        <v>113361888346</v>
+        <v>114575457392</v>
       </c>
       <c r="D200" s="3">
-        <v>1916</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4723,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>72.43000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C201" s="2">
-        <v>92471462197</v>
+        <v>90354371959</v>
       </c>
       <c r="D201" s="3">
-        <v>2733</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4737,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>70.31</v>
+        <v>69.59</v>
       </c>
       <c r="C202" s="2">
-        <v>43082393153</v>
+        <v>42737723940</v>
       </c>
       <c r="D202" s="3">
-        <v>2816</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,13 +4751,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>102.33</v>
+        <v>101.4</v>
       </c>
       <c r="C203" s="2">
-        <v>10339652445</v>
+        <v>10624773434</v>
       </c>
       <c r="D203" s="3">
-        <v>1935</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4765,13 +4765,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>38.33</v>
+        <v>39.25</v>
       </c>
       <c r="C204" s="2">
-        <v>33564176405</v>
+        <v>32684132837</v>
       </c>
       <c r="D204" s="3">
-        <v>5166</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,13 +4779,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>63.11</v>
+        <v>62.5</v>
       </c>
       <c r="C205" s="2">
-        <v>92222707273</v>
+        <v>92303016934</v>
       </c>
       <c r="D205" s="3">
-        <v>3137</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4793,10 +4793,10 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>2753.63</v>
+        <v>2778.38</v>
       </c>
       <c r="C206" s="2">
-        <v>1894881815078</v>
+        <v>1886783537300</v>
       </c>
       <c r="D206" s="3">
         <v>71</v>
@@ -4807,13 +4807,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>2818.56</v>
+        <v>2742.37</v>
       </c>
       <c r="C207" s="2">
-        <v>1929330960052</v>
+        <v>1869753320006</v>
       </c>
       <c r="D207" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4821,13 +4821,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>143.19</v>
+        <v>143.55</v>
       </c>
       <c r="C208" s="2">
-        <v>20654947583</v>
+        <v>19945812780</v>
       </c>
       <c r="D208" s="3">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,13 +4835,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>156.2</v>
+        <v>155.6</v>
       </c>
       <c r="C209" s="2">
-        <v>45114610670</v>
+        <v>44314706928</v>
       </c>
       <c r="D209" s="3">
-        <v>1267</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4849,13 +4849,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>18.23</v>
+        <v>18.76</v>
       </c>
       <c r="C210" s="2">
-        <v>7035115563</v>
+        <v>6776852728</v>
       </c>
       <c r="D210" s="3">
-        <v>10862</v>
+        <v>10555</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,13 +4863,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>133.73</v>
+        <v>132.37</v>
       </c>
       <c r="C211" s="2">
-        <v>26371992611</v>
+        <v>25574712523</v>
       </c>
       <c r="D211" s="3">
-        <v>1480</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4877,13 +4877,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>409.89</v>
+        <v>403.58</v>
       </c>
       <c r="C212" s="2">
-        <v>134787002846</v>
+        <v>134004287620</v>
       </c>
       <c r="D212" s="3">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4891,13 +4891,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>511.76</v>
+        <v>516.5</v>
       </c>
       <c r="C213" s="2">
-        <v>26583010571</v>
+        <v>26698187005</v>
       </c>
       <c r="D213" s="3">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4905,13 +4905,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>26.8</v>
+        <v>27.23</v>
       </c>
       <c r="C214" s="2">
-        <v>23982102771</v>
+        <v>24285285899</v>
       </c>
       <c r="D214" s="3">
-        <v>7388</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4919,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>105.59</v>
+        <v>104.42</v>
       </c>
       <c r="C215" s="2">
-        <v>14736188591</v>
+        <v>14296200285</v>
       </c>
       <c r="D215" s="3">
-        <v>1875</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4933,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>17.67</v>
+        <v>17.34</v>
       </c>
       <c r="C216" s="2">
-        <v>26109565488</v>
+        <v>25192137685</v>
       </c>
       <c r="D216" s="3">
-        <v>11206</v>
+        <v>11419</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4947,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>17.32</v>
+        <v>17.61</v>
       </c>
       <c r="C217" s="2">
-        <v>5994525330</v>
+        <v>6039178397</v>
       </c>
       <c r="D217" s="3">
-        <v>11433</v>
+        <v>11244</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,13 +4961,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>258.2</v>
+        <v>255.5</v>
       </c>
       <c r="C218" s="2">
-        <v>78481984012</v>
+        <v>79902564591</v>
       </c>
       <c r="D218" s="3">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4975,13 +4975,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>409.05</v>
+        <v>402.9</v>
       </c>
       <c r="C219" s="2">
-        <v>429960845040</v>
+        <v>419416007240</v>
       </c>
       <c r="D219" s="3">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4989,13 +4989,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>88.36</v>
+        <v>87.45</v>
       </c>
       <c r="C220" s="2">
-        <v>27107800156</v>
+        <v>27580380803</v>
       </c>
       <c r="D220" s="3">
-        <v>2241</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5003,13 +5003,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>34.9</v>
+        <v>34.65</v>
       </c>
       <c r="C221" s="2">
-        <v>5628504200</v>
+        <v>5547820104</v>
       </c>
       <c r="D221" s="3">
-        <v>5673</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5017,13 +5017,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>72.72</v>
+        <v>73.36</v>
       </c>
       <c r="C222" s="2">
-        <v>24555897877</v>
+        <v>24957188663</v>
       </c>
       <c r="D222" s="3">
-        <v>2723</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5031,13 +5031,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>197.87</v>
+        <v>197.41</v>
       </c>
       <c r="C223" s="2">
-        <v>7762413883</v>
+        <v>7864951950</v>
       </c>
       <c r="D223" s="3">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5048,7 +5048,7 @@
         <v>155</v>
       </c>
       <c r="C224" s="2">
-        <v>42701154461</v>
+        <v>43875911805</v>
       </c>
       <c r="D224" s="3">
         <v>1277</v>
@@ -5059,13 +5059,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>71.7</v>
+        <v>72.08</v>
       </c>
       <c r="C225" s="2">
-        <v>18138993672</v>
+        <v>18112263293</v>
       </c>
       <c r="D225" s="3">
-        <v>2761</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5073,13 +5073,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>220.66</v>
+        <v>223.97</v>
       </c>
       <c r="C226" s="2">
-        <v>150972145011</v>
+        <v>155892029024</v>
       </c>
       <c r="D226" s="3">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5087,13 +5087,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>17.94</v>
+        <v>17.67</v>
       </c>
       <c r="C227" s="2">
-        <v>22349194744</v>
+        <v>23008034325</v>
       </c>
       <c r="D227" s="3">
-        <v>11037</v>
+        <v>11206</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5101,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>39.9</v>
+        <v>39.77</v>
       </c>
       <c r="C228" s="2">
-        <v>43435746629</v>
+        <v>43567263889</v>
       </c>
       <c r="D228" s="3">
-        <v>4962</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5115,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>24.16</v>
+        <v>23.72</v>
       </c>
       <c r="C229" s="2">
-        <v>4094812850</v>
+        <v>4189521414</v>
       </c>
       <c r="D229" s="3">
-        <v>8196</v>
+        <v>8348</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,13 +5129,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>51.15</v>
+        <v>49.89</v>
       </c>
       <c r="C230" s="2">
-        <v>28133045826</v>
+        <v>27068109694</v>
       </c>
       <c r="D230" s="3">
-        <v>3871</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5143,13 +5143,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>80.70999999999999</v>
+        <v>80.89</v>
       </c>
       <c r="C231" s="2">
-        <v>11318125647</v>
+        <v>11376270262</v>
       </c>
       <c r="D231" s="3">
-        <v>2453</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5157,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>18.26</v>
+        <v>18.82</v>
       </c>
       <c r="C232" s="2">
-        <v>13471702635</v>
+        <v>13172902866</v>
       </c>
       <c r="D232" s="3">
-        <v>10844</v>
+        <v>10521</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,13 +5171,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>204.02</v>
+        <v>200.99</v>
       </c>
       <c r="C233" s="2">
-        <v>42701619583</v>
+        <v>41327278365</v>
       </c>
       <c r="D233" s="3">
-        <v>970</v>
+        <v>985</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5185,13 +5185,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>369.44</v>
+        <v>376.1</v>
       </c>
       <c r="C234" s="2">
-        <v>47737504579</v>
+        <v>48081098723</v>
       </c>
       <c r="D234" s="3">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5199,13 +5199,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>34.52</v>
+        <v>34.8</v>
       </c>
       <c r="C235" s="2">
-        <v>15073684862</v>
+        <v>15029510298</v>
       </c>
       <c r="D235" s="3">
-        <v>5736</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5213,13 +5213,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>135.25</v>
+        <v>140.31</v>
       </c>
       <c r="C236" s="2">
-        <v>126229510227</v>
+        <v>124741731067</v>
       </c>
       <c r="D236" s="3">
-        <v>1464</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5227,13 +5227,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>136.58</v>
+        <v>136.66</v>
       </c>
       <c r="C237" s="2">
-        <v>75118031331</v>
+        <v>75735595035</v>
       </c>
       <c r="D237" s="3">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5241,13 +5241,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>575.2</v>
+        <v>569.6</v>
       </c>
       <c r="C238" s="2">
-        <v>46787231230</v>
+        <v>48596123514</v>
       </c>
       <c r="D238" s="3">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5255,13 +5255,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>229.92</v>
+        <v>237.44</v>
       </c>
       <c r="C239" s="2">
-        <v>17831860553</v>
+        <v>17583531244</v>
       </c>
       <c r="D239" s="3">
-        <v>861</v>
+        <v>833</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5269,13 +5269,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>143</v>
+        <v>146.26</v>
       </c>
       <c r="C240" s="2">
-        <v>37859083813</v>
+        <v>36307760993</v>
       </c>
       <c r="D240" s="3">
-        <v>1384</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,13 +5283,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>375.16</v>
+        <v>386.3</v>
       </c>
       <c r="C241" s="2">
-        <v>59321482029</v>
+        <v>59869224393</v>
       </c>
       <c r="D241" s="3">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5297,13 +5297,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>75.59</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="C242" s="2">
-        <v>16738716565</v>
+        <v>16499281551</v>
       </c>
       <c r="D242" s="3">
-        <v>2619</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5311,13 +5311,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C243" s="2">
-        <v>54947978608</v>
+        <v>55008338681</v>
       </c>
       <c r="D243" s="3">
-        <v>1547</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,13 +5325,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>53.76</v>
+        <v>55.02</v>
       </c>
       <c r="C244" s="2">
-        <v>220517213457</v>
+        <v>226805481661</v>
       </c>
       <c r="D244" s="3">
-        <v>3683</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5339,13 +5339,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>575.64</v>
+        <v>591.7</v>
       </c>
       <c r="C245" s="2">
-        <v>158264162284</v>
+        <v>161139345797</v>
       </c>
       <c r="D245" s="3">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5353,13 +5353,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>49.25</v>
+        <v>49.83</v>
       </c>
       <c r="C246" s="2">
-        <v>19393810564</v>
+        <v>19230538095</v>
       </c>
       <c r="D246" s="3">
-        <v>4020</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5367,13 +5367,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>38.93</v>
+        <v>37.62</v>
       </c>
       <c r="C247" s="2">
-        <v>14921707075</v>
+        <v>15276163969</v>
       </c>
       <c r="D247" s="3">
-        <v>5086</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,13 +5381,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>168.62</v>
+        <v>165.62</v>
       </c>
       <c r="C248" s="2">
-        <v>8711800581</v>
+        <v>9048887050</v>
       </c>
       <c r="D248" s="3">
-        <v>1174</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5395,13 +5395,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>266.11</v>
+        <v>258.14</v>
       </c>
       <c r="C249" s="2">
-        <v>49811239136</v>
+        <v>51095537233</v>
       </c>
       <c r="D249" s="3">
-        <v>744</v>
+        <v>767</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5409,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>60.2</v>
+        <v>60.8</v>
       </c>
       <c r="C250" s="2">
-        <v>24591774210</v>
+        <v>25270151078</v>
       </c>
       <c r="D250" s="3">
-        <v>3289</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5423,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>47.53</v>
+        <v>49.07</v>
       </c>
       <c r="C251" s="2">
-        <v>13673691892</v>
+        <v>14136260117</v>
       </c>
       <c r="D251" s="3">
-        <v>4166</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,13 +5437,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>338.23</v>
+        <v>326.94</v>
       </c>
       <c r="C252" s="2">
-        <v>118649910959</v>
+        <v>119179386892</v>
       </c>
       <c r="D252" s="3">
-        <v>585</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5451,13 +5451,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>313.14</v>
+        <v>300.6</v>
       </c>
       <c r="C253" s="2">
-        <v>25227923366</v>
+        <v>25740637724</v>
       </c>
       <c r="D253" s="3">
-        <v>632</v>
+        <v>658</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5465,13 +5465,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>254.06</v>
+        <v>252.09</v>
       </c>
       <c r="C254" s="2">
-        <v>79279462741</v>
+        <v>80655852469</v>
       </c>
       <c r="D254" s="3">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5479,13 +5479,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>25.44</v>
+        <v>25.21</v>
       </c>
       <c r="C255" s="2">
-        <v>11554935157</v>
+        <v>11872388683</v>
       </c>
       <c r="D255" s="3">
-        <v>7783</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5493,13 +5493,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>139.47</v>
+        <v>137.23</v>
       </c>
       <c r="C256" s="2">
-        <v>18637688251</v>
+        <v>18223645869</v>
       </c>
       <c r="D256" s="3">
-        <v>1419</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,13 +5507,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>201.95</v>
+        <v>210.07</v>
       </c>
       <c r="C257" s="2">
-        <v>21832545312</v>
+        <v>21768640236</v>
       </c>
       <c r="D257" s="3">
-        <v>980</v>
+        <v>942</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5521,13 +5521,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>80.53</v>
+        <v>80.52</v>
       </c>
       <c r="C258" s="2">
-        <v>57217866007</v>
+        <v>55845704918</v>
       </c>
       <c r="D258" s="3">
-        <v>2458</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,13 +5535,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>178.11</v>
+        <v>170.23</v>
       </c>
       <c r="C259" s="2">
-        <v>12584649878</v>
+        <v>13133491139</v>
       </c>
       <c r="D259" s="3">
-        <v>1111</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5549,13 +5549,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="2">
-        <v>182.29</v>
+        <v>174.26</v>
       </c>
       <c r="C260" s="2">
-        <v>458277821775</v>
+        <v>478504545522</v>
       </c>
       <c r="D260" s="3">
-        <v>1086</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5563,13 +5563,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>35.38</v>
+        <v>35.28</v>
       </c>
       <c r="C261" s="2">
-        <v>11683605165</v>
+        <v>11406018027</v>
       </c>
       <c r="D261" s="3">
-        <v>5596</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,13 +5577,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>175.43</v>
+        <v>173.32</v>
       </c>
       <c r="C262" s="2">
-        <v>505848649207</v>
+        <v>517288354857</v>
       </c>
       <c r="D262" s="3">
-        <v>1128</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5591,13 +5591,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>68.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C263" s="2">
-        <v>23182615191</v>
+        <v>23646640794</v>
       </c>
       <c r="D263" s="3">
-        <v>2903</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5605,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>26.56</v>
+        <v>26.97</v>
       </c>
       <c r="C264" s="2">
-        <v>25528112268</v>
+        <v>25308005074</v>
       </c>
       <c r="D264" s="3">
-        <v>7455</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,13 +5619,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C265" s="2">
-        <v>35876676440</v>
+        <v>35466716202</v>
       </c>
       <c r="D265" s="3">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5633,13 +5633,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>38.52</v>
+        <v>37.61</v>
       </c>
       <c r="C266" s="2">
-        <v>47668604385</v>
+        <v>47459281924</v>
       </c>
       <c r="D266" s="3">
-        <v>5140</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5647,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>25.59</v>
+        <v>25.15</v>
       </c>
       <c r="C267" s="2">
-        <v>16005766579</v>
+        <v>15364031011</v>
       </c>
       <c r="D267" s="3">
-        <v>7738</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,13 +5661,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>427.79</v>
+        <v>427.63</v>
       </c>
       <c r="C268" s="2">
-        <v>64745050892</v>
+        <v>64901647993</v>
       </c>
       <c r="D268" s="3">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5675,13 +5675,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>149.47</v>
+        <v>150.75</v>
       </c>
       <c r="C269" s="2">
-        <v>49135346205</v>
+        <v>48705216117</v>
       </c>
       <c r="D269" s="3">
-        <v>1324</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5689,13 +5689,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>17.54</v>
+        <v>17.74</v>
       </c>
       <c r="C270" s="2">
-        <v>39750594824</v>
+        <v>40294209145</v>
       </c>
       <c r="D270" s="3">
-        <v>11289</v>
+        <v>11162</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,13 +5703,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>125.37</v>
+        <v>123.27</v>
       </c>
       <c r="C271" s="2">
-        <v>20321926419</v>
+        <v>19847379346</v>
       </c>
       <c r="D271" s="3">
-        <v>1579</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5717,13 +5717,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>61.57</v>
+        <v>61.02</v>
       </c>
       <c r="C272" s="2">
-        <v>262820606942</v>
+        <v>270559931098</v>
       </c>
       <c r="D272" s="3">
-        <v>3216</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5731,13 +5731,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>49.1</v>
+        <v>49.94</v>
       </c>
       <c r="C273" s="2">
-        <v>35868198013</v>
+        <v>36451804566</v>
       </c>
       <c r="D273" s="3">
-        <v>4032</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,13 +5745,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>48.6</v>
+        <v>48.8</v>
       </c>
       <c r="C274" s="2">
-        <v>7029104811</v>
+        <v>6795350684</v>
       </c>
       <c r="D274" s="3">
-        <v>4074</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5759,13 +5759,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>305.71</v>
+        <v>294.47</v>
       </c>
       <c r="C275" s="2">
-        <v>26873230879</v>
+        <v>27872944614</v>
       </c>
       <c r="D275" s="3">
-        <v>647</v>
+        <v>672</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5773,13 +5773,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>63.21</v>
+        <v>63.45</v>
       </c>
       <c r="C276" s="2">
-        <v>15529325251</v>
+        <v>16019019899</v>
       </c>
       <c r="D276" s="3">
-        <v>3132</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5787,13 +5787,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>82.93000000000001</v>
+        <v>83.70999999999999</v>
       </c>
       <c r="C277" s="2">
-        <v>22138799461</v>
+        <v>22053444590</v>
       </c>
       <c r="D277" s="3">
-        <v>2387</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,13 +5801,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>93.43000000000001</v>
+        <v>93.67</v>
       </c>
       <c r="C278" s="2">
-        <v>12937130329</v>
+        <v>13078718184</v>
       </c>
       <c r="D278" s="3">
-        <v>2119</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5815,13 +5815,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>42.03</v>
+        <v>42.08</v>
       </c>
       <c r="C279" s="2">
-        <v>5656782430</v>
+        <v>5745427635</v>
       </c>
       <c r="D279" s="3">
-        <v>4711</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,13 +5829,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>106.39</v>
+        <v>106.29</v>
       </c>
       <c r="C280" s="2">
-        <v>32359359294</v>
+        <v>31573271552</v>
       </c>
       <c r="D280" s="3">
-        <v>1861</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5843,13 +5843,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>294.99</v>
+        <v>294.31</v>
       </c>
       <c r="C281" s="2">
-        <v>28434741110</v>
+        <v>28290233152</v>
       </c>
       <c r="D281" s="3">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5857,13 +5857,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>224.46</v>
+        <v>230.23</v>
       </c>
       <c r="C282" s="2">
-        <v>44154549595</v>
+        <v>43383548067</v>
       </c>
       <c r="D282" s="3">
-        <v>882</v>
+        <v>860</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5871,13 +5871,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>336.44</v>
+        <v>351.13</v>
       </c>
       <c r="C283" s="2">
-        <v>175111921853</v>
+        <v>176610002201</v>
       </c>
       <c r="D283" s="3">
-        <v>588</v>
+        <v>563</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5885,13 +5885,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>58.78</v>
+        <v>60.06</v>
       </c>
       <c r="C284" s="2">
-        <v>17426823092</v>
+        <v>17800896032</v>
       </c>
       <c r="D284" s="3">
-        <v>3368</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,13 +5899,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>267.1</v>
+        <v>268.9</v>
       </c>
       <c r="C285" s="2">
-        <v>255463789661</v>
+        <v>260137508342</v>
       </c>
       <c r="D285" s="3">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5913,13 +5913,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>377.42</v>
+        <v>368.86</v>
       </c>
       <c r="C286" s="2">
-        <v>103154080826</v>
+        <v>102750571132</v>
       </c>
       <c r="D286" s="3">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5927,13 +5927,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="C287" s="2">
-        <v>13735931959</v>
+        <v>13281261192</v>
       </c>
       <c r="D287" s="3">
-        <v>2588</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5941,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>61.62</v>
+        <v>62.74</v>
       </c>
       <c r="C288" s="2">
-        <v>15473845194</v>
+        <v>15391696779</v>
       </c>
       <c r="D288" s="3">
-        <v>3213</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5955,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>261.79</v>
+        <v>252.5</v>
       </c>
       <c r="C289" s="2">
-        <v>172665302122</v>
+        <v>173046383375</v>
       </c>
       <c r="D289" s="3">
-        <v>756</v>
+        <v>784</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,13 +5969,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>684.47</v>
+        <v>691.61</v>
       </c>
       <c r="C290" s="2">
-        <v>96145263720</v>
+        <v>95052667967</v>
       </c>
       <c r="D290" s="3">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5983,13 +5983,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>45.76</v>
+        <v>45.6</v>
       </c>
       <c r="C291" s="2">
-        <v>27045483514</v>
+        <v>27856737897</v>
       </c>
       <c r="D291" s="3">
-        <v>4327</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +5997,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="C292" s="2">
-        <v>29250885331</v>
+        <v>30318713753</v>
       </c>
       <c r="D292" s="3">
-        <v>5025</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6011,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>71.68000000000001</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="C293" s="2">
-        <v>10561713789</v>
+        <v>10615046240</v>
       </c>
       <c r="D293" s="3">
-        <v>2762</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,13 +6025,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>98.65000000000001</v>
+        <v>100.29</v>
       </c>
       <c r="C294" s="2">
-        <v>32983435065</v>
+        <v>33782001665</v>
       </c>
       <c r="D294" s="3">
-        <v>2007</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6039,13 +6039,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>117.55</v>
+        <v>117.44</v>
       </c>
       <c r="C295" s="2">
-        <v>26728527310</v>
+        <v>26522594662</v>
       </c>
       <c r="D295" s="3">
-        <v>1684</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6053,13 +6053,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>377.51</v>
+        <v>377.04</v>
       </c>
       <c r="C296" s="2">
-        <v>364632176460</v>
+        <v>365607556217</v>
       </c>
       <c r="D296" s="3">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6067,13 +6067,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>217.89</v>
+        <v>218.17</v>
       </c>
       <c r="C297" s="2">
-        <v>24960806593</v>
+        <v>26066126541</v>
       </c>
       <c r="D297" s="3">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6081,13 +6081,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>168.67</v>
+        <v>167.95</v>
       </c>
       <c r="C298" s="2">
-        <v>55255893649</v>
+        <v>55213511483</v>
       </c>
       <c r="D298" s="3">
-        <v>1174</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6095,13 +6095,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>68.25</v>
+        <v>69.58</v>
       </c>
       <c r="C299" s="2">
-        <v>17155426493</v>
+        <v>17029225697</v>
       </c>
       <c r="D299" s="3">
-        <v>2901</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,13 +6109,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>280.38</v>
+        <v>270.14</v>
       </c>
       <c r="C300" s="2">
-        <v>207934664003</v>
+        <v>205053367765</v>
       </c>
       <c r="D300" s="3">
-        <v>706</v>
+        <v>733</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6123,13 +6123,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>82.67</v>
+        <v>85.26000000000001</v>
       </c>
       <c r="C301" s="2">
-        <v>46409516419</v>
+        <v>47459653639</v>
       </c>
       <c r="D301" s="3">
-        <v>2395</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6137,13 +6137,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>253.59</v>
+        <v>259.21</v>
       </c>
       <c r="C302" s="2">
-        <v>38575126824</v>
+        <v>39248782306</v>
       </c>
       <c r="D302" s="3">
-        <v>780</v>
+        <v>763</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6151,13 +6151,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>375.6</v>
+        <v>372.9</v>
       </c>
       <c r="C303" s="2">
-        <v>71891625268</v>
+        <v>72350738686</v>
       </c>
       <c r="D303" s="3">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6165,13 +6165,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>68.20999999999999</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="C304" s="2">
-        <v>96927447229</v>
+        <v>94278631612</v>
       </c>
       <c r="D304" s="3">
-        <v>2903</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6179,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>105.55</v>
+        <v>106.17</v>
       </c>
       <c r="C305" s="2">
-        <v>146518926362</v>
+        <v>146955876666</v>
       </c>
       <c r="D305" s="3">
-        <v>1876</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,13 +6193,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>67.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C306" s="2">
-        <v>57077780546</v>
+        <v>57650531204</v>
       </c>
       <c r="D306" s="3">
-        <v>2924</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6207,13 +6207,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>46.7</v>
+        <v>45.55</v>
       </c>
       <c r="C307" s="2">
-        <v>21039516329</v>
+        <v>21766067915</v>
       </c>
       <c r="D307" s="3">
-        <v>4240</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,13 +6221,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>183.81</v>
+        <v>181.88</v>
       </c>
       <c r="C308" s="2">
-        <v>12049342361</v>
+        <v>12318975302</v>
       </c>
       <c r="D308" s="3">
-        <v>1077</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6235,13 +6235,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>98.09999999999999</v>
+        <v>97.37</v>
       </c>
       <c r="C309" s="2">
-        <v>26067838274</v>
+        <v>25879150001</v>
       </c>
       <c r="D309" s="3">
-        <v>2018</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6249,13 +6249,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>392.82</v>
+        <v>395.76</v>
       </c>
       <c r="C310" s="2">
-        <v>14930009960</v>
+        <v>15088392450</v>
       </c>
       <c r="D310" s="3">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6263,13 +6263,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>438</v>
+        <v>438.3</v>
       </c>
       <c r="C311" s="2">
-        <v>27681033310</v>
+        <v>27810123700</v>
       </c>
       <c r="D311" s="3">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6277,13 +6277,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="2">
-        <v>166.44</v>
+        <v>165.82</v>
       </c>
       <c r="C312" s="2">
-        <v>86039779160</v>
+        <v>86021179336</v>
       </c>
       <c r="D312" s="3">
-        <v>1189</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6291,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>185.07</v>
+        <v>182</v>
       </c>
       <c r="C313" s="2">
-        <v>108263656932</v>
+        <v>108999894335</v>
       </c>
       <c r="D313" s="3">
-        <v>1069</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,13 +6305,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>94.69</v>
+        <v>98.08</v>
       </c>
       <c r="C314" s="2">
-        <v>51304115033</v>
+        <v>51980229940</v>
       </c>
       <c r="D314" s="3">
-        <v>2091</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6319,13 +6319,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>50.77</v>
+        <v>51.04</v>
       </c>
       <c r="C315" s="2">
-        <v>91512830735</v>
+        <v>93010560656</v>
       </c>
       <c r="D315" s="3">
-        <v>3900</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6333,13 +6333,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>41.64</v>
+        <v>41.71</v>
       </c>
       <c r="C316" s="2">
-        <v>15750472060</v>
+        <v>15785759198</v>
       </c>
       <c r="D316" s="3">
-        <v>4755</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6347,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>72.09999999999999</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="C317" s="2">
-        <v>44824345420</v>
+        <v>45430571308</v>
       </c>
       <c r="D317" s="3">
-        <v>2746</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,13 +6361,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>80.5</v>
+        <v>81.2</v>
       </c>
       <c r="C318" s="2">
-        <v>211791446712</v>
+        <v>212039580463</v>
       </c>
       <c r="D318" s="3">
-        <v>2459</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6375,13 +6375,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>18.83</v>
+        <v>18.8</v>
       </c>
       <c r="C319" s="2">
-        <v>14263089012</v>
+        <v>14349425074</v>
       </c>
       <c r="D319" s="3">
-        <v>10516</v>
+        <v>10532</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,13 +6389,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>106.34</v>
+        <v>109.04</v>
       </c>
       <c r="C320" s="2">
-        <v>188635168873</v>
+        <v>187926608543</v>
       </c>
       <c r="D320" s="3">
-        <v>1862</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6403,13 +6403,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="C321" s="2">
-        <v>47081197082</v>
+        <v>47591967354</v>
       </c>
       <c r="D321" s="3">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6417,13 +6417,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>321.26</v>
+        <v>318.8</v>
       </c>
       <c r="C322" s="2">
-        <v>2455565999419</v>
+        <v>2358548703376</v>
       </c>
       <c r="D322" s="3">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6431,13 +6431,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>264.75</v>
+        <v>256.18</v>
       </c>
       <c r="C323" s="2">
-        <v>43326928504</v>
+        <v>43205119171</v>
       </c>
       <c r="D323" s="3">
-        <v>747</v>
+        <v>772</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6445,13 +6445,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>177.03</v>
+        <v>184.24</v>
       </c>
       <c r="C324" s="2">
-        <v>22955191142</v>
+        <v>23772865205</v>
       </c>
       <c r="D324" s="3">
-        <v>1118</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6459,13 +6459,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>1569.41</v>
+        <v>1550.02</v>
       </c>
       <c r="C325" s="2">
-        <v>35597236896</v>
+        <v>35887672096</v>
       </c>
       <c r="D325" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6473,13 +6473,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>95.04000000000001</v>
+        <v>98.87</v>
       </c>
       <c r="C326" s="2">
-        <v>106809219319</v>
+        <v>106206264203</v>
       </c>
       <c r="D326" s="3">
-        <v>2083</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6487,13 +6487,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>108.21</v>
+        <v>107.34</v>
       </c>
       <c r="C327" s="2">
-        <v>28501278740</v>
+        <v>29082239560</v>
       </c>
       <c r="D327" s="3">
-        <v>1829</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6501,13 +6501,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>16.22</v>
+        <v>16.483</v>
       </c>
       <c r="C328" s="2">
-        <v>8753729425</v>
+        <v>8948247032</v>
       </c>
       <c r="D328" s="3">
-        <v>12208</v>
+        <v>12013</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6515,13 +6515,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>8.73</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C329" s="2">
-        <v>4098542011</v>
+        <v>4220836950</v>
       </c>
       <c r="D329" s="3">
-        <v>22682</v>
+        <v>22734</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6529,13 +6529,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="C330" s="2">
-        <v>4899051982</v>
+        <v>5008816038</v>
       </c>
       <c r="D330" s="3">
-        <v>8685</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,13 +6543,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>194.55</v>
+        <v>196.68</v>
       </c>
       <c r="C331" s="2">
-        <v>33175535253</v>
+        <v>32730804047</v>
       </c>
       <c r="D331" s="3">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6557,13 +6557,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>88.06</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="C332" s="2">
-        <v>173105265179</v>
+        <v>175465130895</v>
       </c>
       <c r="D332" s="3">
-        <v>2248</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6571,13 +6571,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>61.88</v>
+        <v>60.51</v>
       </c>
       <c r="C333" s="2">
-        <v>48007649193</v>
+        <v>49650273478</v>
       </c>
       <c r="D333" s="3">
-        <v>3200</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,13 +6585,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>544.09</v>
+        <v>559.3200000000001</v>
       </c>
       <c r="C334" s="2">
-        <v>239592205672</v>
+        <v>239497430430</v>
       </c>
       <c r="D334" s="3">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6599,13 +6599,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>28.4</v>
+        <v>29.25</v>
       </c>
       <c r="C335" s="2">
-        <v>11232395796</v>
+        <v>11235053799</v>
       </c>
       <c r="D335" s="3">
-        <v>6972</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,13 +6613,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>162.31</v>
+        <v>160.42</v>
       </c>
       <c r="C336" s="2">
-        <v>252215160363</v>
+        <v>246670186580</v>
       </c>
       <c r="D336" s="3">
-        <v>1220</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6627,13 +6627,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>27.2</v>
+        <v>27.91</v>
       </c>
       <c r="C337" s="2">
-        <v>16020912686</v>
+        <v>16194606274</v>
       </c>
       <c r="D337" s="3">
-        <v>7280</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6641,13 +6641,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C338" s="2">
-        <v>7657894773</v>
+        <v>7595756643</v>
       </c>
       <c r="D338" s="3">
-        <v>9000</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6655,13 +6655,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>406.61</v>
+        <v>405.32</v>
       </c>
       <c r="C339" s="2">
-        <v>65300274476</v>
+        <v>63639188606</v>
       </c>
       <c r="D339" s="3">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6669,13 +6669,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>15.33</v>
+        <v>15.52</v>
       </c>
       <c r="C340" s="2">
-        <v>6125583010</v>
+        <v>6018032836</v>
       </c>
       <c r="D340" s="3">
-        <v>12917</v>
+        <v>12759</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,13 +6683,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>571.4</v>
+        <v>588.08</v>
       </c>
       <c r="C341" s="2">
-        <v>113166351870</v>
+        <v>117098410151</v>
       </c>
       <c r="D341" s="3">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6697,13 +6697,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>41.68</v>
+        <v>42.41</v>
       </c>
       <c r="C342" s="2">
-        <v>9942735795</v>
+        <v>10422511886</v>
       </c>
       <c r="D342" s="3">
-        <v>4750</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,10 +6711,10 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>299.61</v>
+        <v>299.72</v>
       </c>
       <c r="C343" s="2">
-        <v>77651545546</v>
+        <v>76926358254</v>
       </c>
       <c r="D343" s="3">
         <v>660</v>
@@ -6725,13 +6725,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>92.45999999999999</v>
+        <v>92.25</v>
       </c>
       <c r="C344" s="2">
-        <v>21004334036</v>
+        <v>21358804211</v>
       </c>
       <c r="D344" s="3">
-        <v>2141</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6739,13 +6739,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>134.94</v>
+        <v>131.12</v>
       </c>
       <c r="C345" s="2">
-        <v>28169968764</v>
+        <v>28122763136</v>
       </c>
       <c r="D345" s="3">
-        <v>1467</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6753,13 +6753,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>116.84</v>
+        <v>116.03</v>
       </c>
       <c r="C346" s="2">
-        <v>33077234457</v>
+        <v>33263316025</v>
       </c>
       <c r="D346" s="3">
-        <v>1694</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6767,13 +6767,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>283.45</v>
+        <v>281.95</v>
       </c>
       <c r="C347" s="2">
-        <v>685081944813</v>
+        <v>714037995885</v>
       </c>
       <c r="D347" s="3">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6781,13 +6781,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>5479.7</v>
+        <v>5626.11</v>
       </c>
       <c r="C348" s="2">
-        <v>19197831009</v>
+        <v>19342486919</v>
       </c>
       <c r="D348" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6795,13 +6795,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>24.09</v>
+        <v>23.4</v>
       </c>
       <c r="C349" s="2">
-        <v>10172957278</v>
+        <v>10145232433</v>
       </c>
       <c r="D349" s="3">
-        <v>8220</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6809,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>23.03</v>
+        <v>23.52</v>
       </c>
       <c r="C350" s="2">
-        <v>13753806407</v>
+        <v>13787115942</v>
       </c>
       <c r="D350" s="3">
-        <v>8598</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,13 +6823,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C351" s="2">
-        <v>13465296996</v>
+        <v>13408669535</v>
       </c>
       <c r="D351" s="3">
-        <v>8390</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6837,13 +6837,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>73.31</v>
+        <v>74.94</v>
       </c>
       <c r="C352" s="2">
-        <v>29531238631</v>
+        <v>30044697760</v>
       </c>
       <c r="D352" s="3">
-        <v>2701</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,13 +6851,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>338.6</v>
+        <v>348.4</v>
       </c>
       <c r="C353" s="2">
-        <v>40103521524</v>
+        <v>38944860552</v>
       </c>
       <c r="D353" s="3">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6865,13 +6865,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>63.08</v>
+        <v>63.39</v>
       </c>
       <c r="C354" s="2">
-        <v>29236418473</v>
+        <v>28568379875</v>
       </c>
       <c r="D354" s="3">
-        <v>3139</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6879,13 +6879,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>79.48</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="C355" s="2">
-        <v>16728802311</v>
+        <v>17028316960</v>
       </c>
       <c r="D355" s="3">
-        <v>2491</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6893,13 +6893,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>89.42</v>
+        <v>88.19</v>
       </c>
       <c r="C356" s="2">
-        <v>239760344569</v>
+        <v>235150785620</v>
       </c>
       <c r="D356" s="3">
-        <v>2214</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,13 +6907,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>686.61</v>
+        <v>685</v>
       </c>
       <c r="C357" s="2">
-        <v>46444321286</v>
+        <v>46740317970</v>
       </c>
       <c r="D357" s="3">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6921,13 +6921,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>86.06</v>
+        <v>87.22</v>
       </c>
       <c r="C358" s="2">
-        <v>36179396055</v>
+        <v>36669584025</v>
       </c>
       <c r="D358" s="3">
-        <v>2300</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6935,13 +6935,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>33.69</v>
+        <v>33.4</v>
       </c>
       <c r="C359" s="2">
-        <v>31745314868</v>
+        <v>31165310851</v>
       </c>
       <c r="D359" s="3">
-        <v>5877</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,13 +6949,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>358</v>
+        <v>365.2</v>
       </c>
       <c r="C360" s="2">
-        <v>21777463672</v>
+        <v>21567577865</v>
       </c>
       <c r="D360" s="3">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6963,13 +6963,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>134.59</v>
+        <v>129.37</v>
       </c>
       <c r="C361" s="2">
-        <v>46615090622</v>
+        <v>48590534898</v>
       </c>
       <c r="D361" s="3">
-        <v>1471</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6977,13 +6977,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>21.14</v>
+        <v>20.61</v>
       </c>
       <c r="C362" s="2">
-        <v>9084611557</v>
+        <v>9009665791</v>
       </c>
       <c r="D362" s="3">
-        <v>9367</v>
+        <v>9607</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6991,13 +6991,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>94.28</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="C363" s="2">
-        <v>33559977488</v>
+        <v>33138536099</v>
       </c>
       <c r="D363" s="3">
-        <v>2100</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7008,7 +7008,7 @@
         <v>37.25</v>
       </c>
       <c r="C364" s="2">
-        <v>20081036610</v>
+        <v>19401941488</v>
       </c>
       <c r="D364" s="3">
         <v>5315</v>
@@ -7019,13 +7019,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C365" s="2">
-        <v>35561819303</v>
+        <v>34641473968</v>
       </c>
       <c r="D365" s="3">
-        <v>2869</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7033,13 +7033,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>179.9</v>
+        <v>180.51</v>
       </c>
       <c r="C366" s="2">
-        <v>252509439733</v>
+        <v>246195414247</v>
       </c>
       <c r="D366" s="3">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7047,13 +7047,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>58.08</v>
+        <v>58.39</v>
       </c>
       <c r="C367" s="2">
-        <v>325391043535</v>
+        <v>319522243670</v>
       </c>
       <c r="D367" s="3">
-        <v>3409</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7061,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>79.5</v>
+        <v>78.33</v>
       </c>
       <c r="C368" s="2">
-        <v>20227320550</v>
+        <v>20597198170</v>
       </c>
       <c r="D368" s="3">
-        <v>2490</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,13 +7075,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>165.29</v>
+        <v>166.46</v>
       </c>
       <c r="C369" s="2">
-        <v>405895367403</v>
+        <v>409377694758</v>
       </c>
       <c r="D369" s="3">
-        <v>1198</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7089,13 +7089,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>110.28</v>
+        <v>109.46</v>
       </c>
       <c r="C370" s="2">
-        <v>65602274342</v>
+        <v>66191325460</v>
       </c>
       <c r="D370" s="3">
-        <v>1795</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,13 +7103,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>335.07</v>
+        <v>338.81</v>
       </c>
       <c r="C371" s="2">
-        <v>43637480300</v>
+        <v>41857347381</v>
       </c>
       <c r="D371" s="3">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7117,13 +7117,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>53.27</v>
+        <v>54.58</v>
       </c>
       <c r="C372" s="2">
-        <v>13497114723</v>
+        <v>13352966572</v>
       </c>
       <c r="D372" s="3">
-        <v>3717</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,13 +7131,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>140.66</v>
+        <v>138.6</v>
       </c>
       <c r="C373" s="2">
-        <v>13545614804</v>
+        <v>13170894294</v>
       </c>
       <c r="D373" s="3">
-        <v>1407</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7145,13 +7145,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>186.98</v>
+        <v>184.85</v>
       </c>
       <c r="C374" s="2">
-        <v>23430785515</v>
+        <v>23460152656</v>
       </c>
       <c r="D374" s="3">
-        <v>1059</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7159,13 +7159,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>159.62</v>
+        <v>156.82</v>
       </c>
       <c r="C375" s="2">
-        <v>114538995422</v>
+        <v>118032566937</v>
       </c>
       <c r="D375" s="3">
-        <v>1240</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7173,13 +7173,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>102.13</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C376" s="2">
-        <v>160197279503</v>
+        <v>160949425526</v>
       </c>
       <c r="D376" s="3">
-        <v>1938</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7187,13 +7187,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>234.7</v>
+        <v>223.97</v>
       </c>
       <c r="C377" s="2">
-        <v>95867220306</v>
+        <v>95131126713</v>
       </c>
       <c r="D377" s="3">
-        <v>843</v>
+        <v>884</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7201,13 +7201,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>72.7</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C378" s="2">
-        <v>11536581289</v>
+        <v>11965890319</v>
       </c>
       <c r="D378" s="3">
-        <v>2723</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,13 +7215,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>71.2</v>
+        <v>73.3</v>
       </c>
       <c r="C379" s="2">
-        <v>8226455778</v>
+        <v>8175539015</v>
       </c>
       <c r="D379" s="3">
-        <v>2781</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7229,13 +7229,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>169.84</v>
+        <v>170.56</v>
       </c>
       <c r="C380" s="2">
-        <v>41679150117</v>
+        <v>40948731081</v>
       </c>
       <c r="D380" s="3">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7243,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>31.07</v>
+        <v>30.72</v>
       </c>
       <c r="C381" s="2">
-        <v>23587785139</v>
+        <v>23940629105</v>
       </c>
       <c r="D381" s="3">
-        <v>6373</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7257,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>42.73</v>
+        <v>41.54</v>
       </c>
       <c r="C382" s="2">
-        <v>5498441700</v>
+        <v>5506885163</v>
       </c>
       <c r="D382" s="3">
-        <v>4634</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,13 +7271,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>118</v>
+        <v>120.11</v>
       </c>
       <c r="C383" s="2">
-        <v>43757365547</v>
+        <v>43952581132</v>
       </c>
       <c r="D383" s="3">
-        <v>1678</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7285,13 +7285,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>359.78</v>
+        <v>371.02</v>
       </c>
       <c r="C384" s="2">
-        <v>64367932987</v>
+        <v>64513184849</v>
       </c>
       <c r="D384" s="3">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7299,13 +7299,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>84.41</v>
+        <v>82.94</v>
       </c>
       <c r="C385" s="2">
-        <v>37091464713</v>
+        <v>37033275003</v>
       </c>
       <c r="D385" s="3">
-        <v>2345</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,13 +7313,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>112.11</v>
+        <v>112.29</v>
       </c>
       <c r="C386" s="2">
-        <v>7499960809</v>
+        <v>7856947015</v>
       </c>
       <c r="D386" s="3">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7327,13 +7327,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>111.43</v>
+        <v>110.92</v>
       </c>
       <c r="C387" s="2">
-        <v>15296536240</v>
+        <v>15327222142</v>
       </c>
       <c r="D387" s="3">
-        <v>1777</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7341,13 +7341,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>203.2</v>
+        <v>207.92</v>
       </c>
       <c r="C388" s="2">
-        <v>48957324966</v>
+        <v>50729337490</v>
       </c>
       <c r="D388" s="3">
-        <v>974</v>
+        <v>952</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7355,13 +7355,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>195.7</v>
+        <v>195.9</v>
       </c>
       <c r="C389" s="2">
-        <v>229069774200</v>
+        <v>226328238783</v>
       </c>
       <c r="D389" s="3">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7369,13 +7369,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>188.59</v>
+        <v>184.13</v>
       </c>
       <c r="C390" s="2">
-        <v>207103379197</v>
+        <v>207582050370</v>
       </c>
       <c r="D390" s="3">
-        <v>1050</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7383,13 +7383,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>161.05</v>
+        <v>155.46</v>
       </c>
       <c r="C391" s="2">
-        <v>17790574563</v>
+        <v>17082426797</v>
       </c>
       <c r="D391" s="3">
-        <v>1229</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7397,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>83.25</v>
+        <v>82.61</v>
       </c>
       <c r="C392" s="2">
-        <v>21395268637</v>
+        <v>21485844555</v>
       </c>
       <c r="D392" s="3">
-        <v>2378</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7411,13 +7411,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>288.03</v>
+        <v>286.13</v>
       </c>
       <c r="C393" s="2">
-        <v>11463665357</v>
+        <v>11470145460</v>
       </c>
       <c r="D393" s="3">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7425,13 +7425,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>77.89</v>
+        <v>76.94</v>
       </c>
       <c r="C394" s="2">
-        <v>13452115354</v>
+        <v>13247149573</v>
       </c>
       <c r="D394" s="3">
-        <v>2542</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,13 +7439,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>630.41</v>
+        <v>609.16</v>
       </c>
       <c r="C395" s="2">
-        <v>64504885957</v>
+        <v>66019293061</v>
       </c>
       <c r="D395" s="3">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7453,13 +7453,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>25.69</v>
+        <v>25.9</v>
       </c>
       <c r="C396" s="2">
-        <v>25039032823</v>
+        <v>24148452962</v>
       </c>
       <c r="D396" s="3">
-        <v>7708</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7467,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C397" s="2">
-        <v>12311723797</v>
+        <v>12345410434</v>
       </c>
       <c r="D397" s="3">
-        <v>1783</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,13 +7481,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>111.51</v>
+        <v>114.26</v>
       </c>
       <c r="C398" s="2">
-        <v>23201780691</v>
+        <v>23446231494</v>
       </c>
       <c r="D398" s="3">
-        <v>1775</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7495,13 +7495,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>120.92</v>
+        <v>123.44</v>
       </c>
       <c r="C399" s="2">
-        <v>8645078549</v>
+        <v>8979259021</v>
       </c>
       <c r="D399" s="3">
-        <v>1637</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7509,13 +7509,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>239.99</v>
+        <v>245.48</v>
       </c>
       <c r="C400" s="2">
-        <v>36011019899</v>
+        <v>35506155727</v>
       </c>
       <c r="D400" s="3">
-        <v>825</v>
+        <v>806</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7523,13 +7523,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>328.33</v>
+        <v>341.85</v>
       </c>
       <c r="C401" s="2">
-        <v>38112126919</v>
+        <v>39298438181</v>
       </c>
       <c r="D401" s="3">
-        <v>603</v>
+        <v>579</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7537,13 +7537,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>34.88</v>
+        <v>34.43</v>
       </c>
       <c r="C402" s="2">
-        <v>16844452901</v>
+        <v>16916559667</v>
       </c>
       <c r="D402" s="3">
-        <v>5677</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7551,13 +7551,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>482.79</v>
+        <v>463.21</v>
       </c>
       <c r="C403" s="2">
-        <v>49088396447</v>
+        <v>50718989047</v>
       </c>
       <c r="D403" s="3">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7565,13 +7565,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>105.72</v>
+        <v>106.39</v>
       </c>
       <c r="C404" s="2">
-        <v>37546427773</v>
+        <v>37428818689</v>
       </c>
       <c r="D404" s="3">
-        <v>1873</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7579,13 +7579,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>138.87</v>
+        <v>134.25</v>
       </c>
       <c r="C405" s="2">
-        <v>43677750827</v>
+        <v>43739977731</v>
       </c>
       <c r="D405" s="3">
-        <v>1425</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7593,13 +7593,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>93.56999999999999</v>
+        <v>91</v>
       </c>
       <c r="C406" s="2">
-        <v>137610392273</v>
+        <v>136250370713</v>
       </c>
       <c r="D406" s="3">
-        <v>2116</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,13 +7607,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>359.46</v>
+        <v>360.05</v>
       </c>
       <c r="C407" s="2">
-        <v>39696729343</v>
+        <v>38394402277</v>
       </c>
       <c r="D407" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7621,13 +7621,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>112.02</v>
+        <v>112.61</v>
       </c>
       <c r="C408" s="2">
-        <v>130099936516</v>
+        <v>126414039568</v>
       </c>
       <c r="D408" s="3">
-        <v>1767</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7635,13 +7635,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>93.95999999999999</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="C409" s="2">
-        <v>174841279578</v>
+        <v>173000041320</v>
       </c>
       <c r="D409" s="3">
-        <v>2107</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,13 +7649,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>66.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="C410" s="2">
-        <v>10131831941</v>
+        <v>9934388341</v>
       </c>
       <c r="D410" s="3">
-        <v>2995</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7663,13 +7663,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>334.34</v>
+        <v>324.16</v>
       </c>
       <c r="C411" s="2">
-        <v>87282795487</v>
+        <v>85696779421</v>
       </c>
       <c r="D411" s="3">
-        <v>592</v>
+        <v>610</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7677,13 +7677,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>751.96</v>
+        <v>759.14</v>
       </c>
       <c r="C412" s="2">
-        <v>44556222674</v>
+        <v>45143460659</v>
       </c>
       <c r="D412" s="3">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7691,13 +7691,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>145.26</v>
+        <v>145.69</v>
       </c>
       <c r="C413" s="2">
-        <v>15873300034</v>
+        <v>15729018672</v>
       </c>
       <c r="D413" s="3">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7705,13 +7705,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>35.42</v>
+        <v>36.37</v>
       </c>
       <c r="C414" s="2">
-        <v>50292400886</v>
+        <v>51448230904</v>
       </c>
       <c r="D414" s="3">
-        <v>5590</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7719,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>83.56999999999999</v>
+        <v>82.89</v>
       </c>
       <c r="C415" s="2">
-        <v>5577252470</v>
+        <v>5501723979</v>
       </c>
       <c r="D415" s="3">
-        <v>2369</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,13 +7733,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>221.14</v>
+        <v>223.28</v>
       </c>
       <c r="C416" s="2">
-        <v>11768457224</v>
+        <v>12239251285</v>
       </c>
       <c r="D416" s="3">
-        <v>895</v>
+        <v>886</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7747,13 +7747,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>334.27</v>
+        <v>335.72</v>
       </c>
       <c r="C417" s="2">
-        <v>51984844368</v>
+        <v>51173733411</v>
       </c>
       <c r="D417" s="3">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7761,13 +7761,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>68.65000000000001</v>
+        <v>70.16</v>
       </c>
       <c r="C418" s="2">
-        <v>75589602716</v>
+        <v>74028995415</v>
       </c>
       <c r="D418" s="3">
-        <v>2884</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7775,13 +7775,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>166.4</v>
+        <v>164.29</v>
       </c>
       <c r="C419" s="2">
-        <v>53363178998</v>
+        <v>54832429311</v>
       </c>
       <c r="D419" s="3">
-        <v>1190</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7789,13 +7789,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>465.45</v>
+        <v>460.52</v>
       </c>
       <c r="C420" s="2">
-        <v>109525808931</v>
+        <v>112214640787</v>
       </c>
       <c r="D420" s="3">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7803,13 +7803,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>141.24</v>
+        <v>139.86</v>
       </c>
       <c r="C421" s="2">
-        <v>46326092928</v>
+        <v>46214626864</v>
       </c>
       <c r="D421" s="3">
-        <v>1402</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7817,13 +7817,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>236.23</v>
+        <v>240.51</v>
       </c>
       <c r="C422" s="2">
-        <v>24596555299</v>
+        <v>23509442141</v>
       </c>
       <c r="D422" s="3">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7831,13 +7831,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>102.7</v>
+        <v>104.43</v>
       </c>
       <c r="C423" s="2">
-        <v>36632753104</v>
+        <v>35501479233</v>
       </c>
       <c r="D423" s="3">
-        <v>1928</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7845,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>112.58</v>
+        <v>112.57</v>
       </c>
       <c r="C424" s="2">
-        <v>24936213307</v>
+        <v>24761871263</v>
       </c>
       <c r="D424" s="3">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,13 +7859,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>247.95</v>
+        <v>249.84</v>
       </c>
       <c r="C425" s="2">
-        <v>47854023285</v>
+        <v>46835329599</v>
       </c>
       <c r="D425" s="3">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7873,13 +7873,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>196.32</v>
+        <v>190.27</v>
       </c>
       <c r="C426" s="2">
-        <v>31159511702</v>
+        <v>31224157652</v>
       </c>
       <c r="D426" s="3">
-        <v>1008</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7887,13 +7887,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>157.22</v>
+        <v>155.58</v>
       </c>
       <c r="C427" s="2">
-        <v>25660686126</v>
+        <v>25959543635</v>
       </c>
       <c r="D427" s="3">
-        <v>1259</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7901,13 +7901,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>48.41</v>
+        <v>48.55</v>
       </c>
       <c r="C428" s="2">
-        <v>26852093925</v>
+        <v>26857483756</v>
       </c>
       <c r="D428" s="3">
-        <v>4090</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,13 +7915,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>273.88</v>
+        <v>265.46</v>
       </c>
       <c r="C429" s="2">
-        <v>100171903050</v>
+        <v>103043975639</v>
       </c>
       <c r="D429" s="3">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7929,13 +7929,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>81.64</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="C430" s="2">
-        <v>42485864825</v>
+        <v>42240777600</v>
       </c>
       <c r="D430" s="3">
-        <v>2425</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7943,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>27.37</v>
+        <v>27.21</v>
       </c>
       <c r="C431" s="2">
-        <v>190029560853</v>
+        <v>195186924847</v>
       </c>
       <c r="D431" s="3">
-        <v>7234</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7957,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>52.55</v>
+        <v>52.12</v>
       </c>
       <c r="C432" s="2">
-        <v>11148020222</v>
+        <v>11359573735</v>
       </c>
       <c r="D432" s="3">
-        <v>3768</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,13 +7971,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>684.16</v>
+        <v>680.84</v>
       </c>
       <c r="C433" s="2">
-        <v>36947217177</v>
+        <v>37792743045</v>
       </c>
       <c r="D433" s="3">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7985,13 +7985,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>429.13</v>
+        <v>428.45</v>
       </c>
       <c r="C434" s="2">
-        <v>20266686754</v>
+        <v>20371755586</v>
       </c>
       <c r="D434" s="3">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7999,13 +7999,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>159.59</v>
+        <v>163.28</v>
       </c>
       <c r="C435" s="2">
-        <v>52101574889</v>
+        <v>52182470842</v>
       </c>
       <c r="D435" s="3">
-        <v>1240</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8016,7 +8016,7 @@
         <v>67</v>
       </c>
       <c r="C436" s="2">
-        <v>89251843967</v>
+        <v>90036896343</v>
       </c>
       <c r="D436" s="3">
         <v>2955</v>
@@ -8027,13 +8027,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>322.99</v>
+        <v>317.63</v>
       </c>
       <c r="C437" s="2">
-        <v>15085234079</v>
+        <v>15258312813</v>
       </c>
       <c r="D437" s="3">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8041,13 +8041,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>240.29</v>
+        <v>232.58</v>
       </c>
       <c r="C438" s="2">
-        <v>114560480199</v>
+        <v>114883472260</v>
       </c>
       <c r="D438" s="3">
-        <v>824</v>
+        <v>851</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8055,13 +8055,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>135.06</v>
+        <v>132.55</v>
       </c>
       <c r="C439" s="2">
-        <v>16699799124</v>
+        <v>16617386034</v>
       </c>
       <c r="D439" s="3">
-        <v>1466</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8069,13 +8069,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>75.97</v>
+        <v>76.12</v>
       </c>
       <c r="C440" s="2">
-        <v>91015670352</v>
+        <v>89714822441</v>
       </c>
       <c r="D440" s="3">
-        <v>2606</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,13 +8083,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>611.99</v>
+        <v>628.67</v>
       </c>
       <c r="C441" s="2">
-        <v>249473287588</v>
+        <v>250757301232</v>
       </c>
       <c r="D441" s="3">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8097,13 +8097,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>114.31</v>
+        <v>114.42</v>
       </c>
       <c r="C442" s="2">
-        <v>141611334909</v>
+        <v>139345858424</v>
       </c>
       <c r="D442" s="3">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8111,13 +8111,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>39.68</v>
+        <v>39.96</v>
       </c>
       <c r="C443" s="2">
-        <v>10929572051</v>
+        <v>11262686592</v>
       </c>
       <c r="D443" s="3">
-        <v>4990</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8125,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>192.9</v>
+        <v>193.24</v>
       </c>
       <c r="C444" s="2">
-        <v>44996410211</v>
+        <v>43265600375</v>
       </c>
       <c r="D444" s="3">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,13 +8139,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>168.05</v>
+        <v>169.05</v>
       </c>
       <c r="C445" s="2">
-        <v>42939930885</v>
+        <v>41434380099</v>
       </c>
       <c r="D445" s="3">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8153,13 +8153,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>237.46</v>
+        <v>232.62</v>
       </c>
       <c r="C446" s="2">
-        <v>27269133563</v>
+        <v>27190320253</v>
       </c>
       <c r="D446" s="3">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8167,13 +8167,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>94.63</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="C447" s="2">
-        <v>34137572381</v>
+        <v>34581069147</v>
       </c>
       <c r="D447" s="3">
-        <v>2092</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8181,13 +8181,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>197.54</v>
+        <v>194.77</v>
       </c>
       <c r="C448" s="2">
-        <v>46068868086</v>
+        <v>46526309690</v>
       </c>
       <c r="D448" s="3">
-        <v>1002</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8195,13 +8195,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>172.8</v>
+        <v>166.9</v>
       </c>
       <c r="C449" s="2">
-        <v>19214336433</v>
+        <v>19611052624</v>
       </c>
       <c r="D449" s="3">
-        <v>1145</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8209,13 +8209,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>40.45</v>
+        <v>41.47</v>
       </c>
       <c r="C450" s="2">
-        <v>32815255429</v>
+        <v>31926664706</v>
       </c>
       <c r="D450" s="3">
-        <v>4895</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8223,13 +8223,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>186.86</v>
+        <v>181.19</v>
       </c>
       <c r="C451" s="2">
-        <v>172023006068</v>
+        <v>173618516792</v>
       </c>
       <c r="D451" s="3">
-        <v>1059</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8237,13 +8237,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>81.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C452" s="2">
-        <v>18000473913</v>
+        <v>17478418477</v>
       </c>
       <c r="D452" s="3">
-        <v>2420</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,13 +8251,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>488.4</v>
+        <v>501.33</v>
       </c>
       <c r="C453" s="2">
-        <v>20020097629</v>
+        <v>20257232995</v>
       </c>
       <c r="D453" s="3">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8265,13 +8265,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>17.39</v>
+        <v>17.4</v>
       </c>
       <c r="C454" s="2">
-        <v>8252935739</v>
+        <v>8554353506</v>
       </c>
       <c r="D454" s="3">
-        <v>11386</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8279,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>19.91</v>
+        <v>20.7</v>
       </c>
       <c r="C455" s="2">
-        <v>8431475417</v>
+        <v>8301547072</v>
       </c>
       <c r="D455" s="3">
-        <v>9945</v>
+        <v>9566</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8293,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>47.63</v>
+        <v>47.95</v>
       </c>
       <c r="C456" s="2">
-        <v>15549632127</v>
+        <v>16058998767</v>
       </c>
       <c r="D456" s="3">
-        <v>4157</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8307,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>60</v>
+        <v>59.68</v>
       </c>
       <c r="C457" s="2">
-        <v>18070245995</v>
+        <v>18399979061</v>
       </c>
       <c r="D457" s="3">
-        <v>3300</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,13 +8321,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>138.03</v>
+        <v>133.04</v>
       </c>
       <c r="C458" s="2">
-        <v>11419707730</v>
+        <v>11315918764</v>
       </c>
       <c r="D458" s="3">
-        <v>1434</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8335,13 +8335,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>412.3</v>
+        <v>409.9</v>
       </c>
       <c r="C459" s="2">
-        <v>21903865356</v>
+        <v>21712845532</v>
       </c>
       <c r="D459" s="3">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8349,10 +8349,10 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>472.3</v>
+        <v>471.5</v>
       </c>
       <c r="C460" s="2">
-        <v>442011028751</v>
+        <v>444432577859</v>
       </c>
       <c r="D460" s="3">
         <v>419</v>
@@ -8363,13 +8363,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>28.76</v>
+        <v>28.1</v>
       </c>
       <c r="C461" s="2">
-        <v>5819624197</v>
+        <v>5866537471</v>
       </c>
       <c r="D461" s="3">
-        <v>6885</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,13 +8377,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>266.92</v>
+        <v>264.95</v>
       </c>
       <c r="C462" s="2">
-        <v>170957148554</v>
+        <v>166641542569</v>
       </c>
       <c r="D462" s="3">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8391,13 +8391,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>219.99</v>
+        <v>219.25</v>
       </c>
       <c r="C463" s="2">
-        <v>192291185881</v>
+        <v>195431157430</v>
       </c>
       <c r="D463" s="3">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8405,13 +8405,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>328.59</v>
+        <v>341.69</v>
       </c>
       <c r="C464" s="2">
-        <v>24290044257</v>
+        <v>24210098943</v>
       </c>
       <c r="D464" s="3">
-        <v>602</v>
+        <v>579</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8419,13 +8419,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C465" s="2">
-        <v>93111845335</v>
+        <v>93980981877</v>
       </c>
       <c r="D465" s="3">
-        <v>3246</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8433,13 +8433,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>222.48</v>
+        <v>222.18</v>
       </c>
       <c r="C466" s="2">
-        <v>493937257864</v>
+        <v>499113661148</v>
       </c>
       <c r="D466" s="3">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8447,13 +8447,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>180.98</v>
+        <v>183.07</v>
       </c>
       <c r="C467" s="2">
-        <v>16968840665</v>
+        <v>16624636125</v>
       </c>
       <c r="D467" s="3">
-        <v>1094</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8461,13 +8461,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>75.5</v>
+        <v>72.97</v>
       </c>
       <c r="C468" s="2">
-        <v>28902760605</v>
+        <v>29677784823</v>
       </c>
       <c r="D468" s="3">
-        <v>2622</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8475,13 +8475,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>36.42</v>
+        <v>36.34</v>
       </c>
       <c r="C469" s="2">
-        <v>23863336625</v>
+        <v>23724988264</v>
       </c>
       <c r="D469" s="3">
-        <v>5437</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8489,13 +8489,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C470" s="2">
-        <v>34232333743</v>
+        <v>34161269128</v>
       </c>
       <c r="D470" s="3">
-        <v>2357</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8503,13 +8503,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>208.04</v>
+        <v>208.87</v>
       </c>
       <c r="C471" s="2">
-        <v>27894316513</v>
+        <v>28916657346</v>
       </c>
       <c r="D471" s="3">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8517,13 +8517,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>46.79</v>
+        <v>46.56</v>
       </c>
       <c r="C472" s="2">
-        <v>9018445604</v>
+        <v>8875369842</v>
       </c>
       <c r="D472" s="3">
-        <v>4232</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,13 +8531,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>216.95</v>
+        <v>207.1</v>
       </c>
       <c r="C473" s="2">
-        <v>34634806289</v>
+        <v>33360576731</v>
       </c>
       <c r="D473" s="3">
-        <v>912</v>
+        <v>956</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8545,13 +8545,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>241.55</v>
+        <v>245.05</v>
       </c>
       <c r="C474" s="2">
-        <v>27439640741</v>
+        <v>26545359247</v>
       </c>
       <c r="D474" s="3">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8559,13 +8559,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>232.37</v>
+        <v>225.8</v>
       </c>
       <c r="C475" s="2">
-        <v>56635228465</v>
+        <v>57881326424</v>
       </c>
       <c r="D475" s="3">
-        <v>852</v>
+        <v>876</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8573,13 +8573,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>55.13</v>
+        <v>55.41</v>
       </c>
       <c r="C476" s="2">
-        <v>22335776103</v>
+        <v>21933205620</v>
       </c>
       <c r="D476" s="3">
-        <v>3591</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8587,13 +8587,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>56.7</v>
+        <v>55.07</v>
       </c>
       <c r="C477" s="2">
-        <v>234153101512</v>
+        <v>236133798582</v>
       </c>
       <c r="D477" s="3">
-        <v>3492</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8601,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>95.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C478" s="2">
-        <v>18106645510</v>
+        <v>18504011380</v>
       </c>
       <c r="D478" s="3">
-        <v>2067</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,13 +8615,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>350.87</v>
+        <v>356.76</v>
       </c>
       <c r="C479" s="2">
-        <v>21930771680</v>
+        <v>22081883146</v>
       </c>
       <c r="D479" s="3">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8629,13 +8629,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>54.04</v>
+        <v>55.46</v>
       </c>
       <c r="C480" s="2">
-        <v>48659673104</v>
+        <v>47230825448</v>
       </c>
       <c r="D480" s="3">
-        <v>3664</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,13 +8643,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>68.76000000000001</v>
+        <v>66.61</v>
       </c>
       <c r="C481" s="2">
-        <v>21434148145</v>
+        <v>21515096249</v>
       </c>
       <c r="D481" s="3">
-        <v>2879</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8657,13 +8657,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>100.7</v>
+        <v>101.43</v>
       </c>
       <c r="C482" s="2">
-        <v>30702623988</v>
+        <v>30879843082</v>
       </c>
       <c r="D482" s="3">
-        <v>1966</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,13 +8671,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>91.73999999999999</v>
+        <v>90.25</v>
       </c>
       <c r="C483" s="2">
-        <v>39854064941</v>
+        <v>38712718401</v>
       </c>
       <c r="D483" s="3">
-        <v>2158</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8685,13 +8685,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>55.07</v>
+        <v>55.62</v>
       </c>
       <c r="C484" s="2">
-        <v>225582924717</v>
+        <v>233303872398</v>
       </c>
       <c r="D484" s="3">
-        <v>3595</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8699,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>227.93</v>
+        <v>233.75</v>
       </c>
       <c r="C485" s="2">
-        <v>14808040757</v>
+        <v>14677346628</v>
       </c>
       <c r="D485" s="3">
-        <v>868</v>
+        <v>847</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8713,13 +8713,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>242.87</v>
+        <v>240.22</v>
       </c>
       <c r="C486" s="2">
-        <v>30002709907</v>
+        <v>29007833386</v>
       </c>
       <c r="D486" s="3">
-        <v>815</v>
+        <v>824</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8727,13 +8727,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>163.33</v>
+        <v>162.16</v>
       </c>
       <c r="C487" s="2">
-        <v>70114905933</v>
+        <v>68841540805</v>
       </c>
       <c r="D487" s="3">
-        <v>1212</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8741,13 +8741,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>29.41</v>
+        <v>28.49</v>
       </c>
       <c r="C488" s="2">
-        <v>34763599189</v>
+        <v>35640156624</v>
       </c>
       <c r="D488" s="3">
-        <v>6733</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,13 +8755,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>151.07</v>
+        <v>151.64</v>
       </c>
       <c r="C489" s="2">
-        <v>411421995241</v>
+        <v>405781375561</v>
       </c>
       <c r="D489" s="3">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,13 +8769,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>88.45999999999999</v>
+        <v>87.58</v>
       </c>
       <c r="C490" s="2">
-        <v>15558809516</v>
+        <v>15090406187</v>
       </c>
       <c r="D490" s="3">
-        <v>2238</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8783,13 +8783,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>48.96</v>
+        <v>47.56</v>
       </c>
       <c r="C491" s="2">
-        <v>12721107450</v>
+        <v>12819901602</v>
       </c>
       <c r="D491" s="3">
-        <v>4044</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,13 +8797,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>398.48</v>
+        <v>391.27</v>
       </c>
       <c r="C492" s="2">
-        <v>29562446546</v>
+        <v>30297723079</v>
       </c>
       <c r="D492" s="3">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8811,13 +8811,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>19.73</v>
+        <v>19.44</v>
       </c>
       <c r="C493" s="2">
-        <v>7991980546</v>
+        <v>7891864215</v>
       </c>
       <c r="D493" s="3">
-        <v>10036</v>
+        <v>10186</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,13 +8825,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>42.34</v>
+        <v>42.17</v>
       </c>
       <c r="C494" s="2">
-        <v>30253219492</v>
+        <v>30944526628</v>
       </c>
       <c r="D494" s="3">
-        <v>4676</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8839,10 +8839,10 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>87.90000000000001</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C495" s="2">
-        <v>10128415560</v>
+        <v>9825585745</v>
       </c>
       <c r="D495" s="3">
         <v>2252</v>
@@ -8853,13 +8853,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>71.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="C496" s="2">
-        <v>37709765408</v>
+        <v>38094730137</v>
       </c>
       <c r="D496" s="3">
-        <v>2773</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8867,13 +8867,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>194.05</v>
+        <v>198.64</v>
       </c>
       <c r="C497" s="2">
-        <v>48781178868</v>
+        <v>48140803553</v>
       </c>
       <c r="D497" s="3">
-        <v>1020</v>
+        <v>996</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8881,13 +8881,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>69.52</v>
+        <v>71.25</v>
       </c>
       <c r="C498" s="2">
-        <v>302153898354</v>
+        <v>304391185034</v>
       </c>
       <c r="D498" s="3">
-        <v>2848</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8895,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>57</v>
+        <v>58.5</v>
       </c>
       <c r="C499" s="2">
-        <v>12906950926</v>
+        <v>12590733232</v>
       </c>
       <c r="D499" s="3">
-        <v>3474</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8912,7 +8912,7 @@
         <v>24.7</v>
       </c>
       <c r="C500" s="2">
-        <v>4236646499</v>
+        <v>4327606016</v>
       </c>
       <c r="D500" s="3">
         <v>8016</v>
@@ -8923,13 +8923,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>118.54</v>
+        <v>117.29</v>
       </c>
       <c r="C501" s="2">
-        <v>21305562049</v>
+        <v>21243074031</v>
       </c>
       <c r="D501" s="3">
-        <v>1670</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8937,13 +8937,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>140.12</v>
+        <v>140.8</v>
       </c>
       <c r="C502" s="2">
-        <v>40992103156</v>
+        <v>41518286382</v>
       </c>
       <c r="D502" s="3">
-        <v>1413</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8951,13 +8951,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>134.32</v>
+        <v>128.24</v>
       </c>
       <c r="C503" s="2">
-        <v>26890842691</v>
+        <v>27593762545</v>
       </c>
       <c r="D503" s="3">
-        <v>1474</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,10 +8965,10 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>534.33</v>
+        <v>534.75</v>
       </c>
       <c r="C504" s="2">
-        <v>28699311391</v>
+        <v>29311976070</v>
       </c>
       <c r="D504" s="3">
         <v>370</v>
@@ -8979,13 +8979,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="2">
-        <v>70.23999999999999</v>
+        <v>71.11</v>
       </c>
       <c r="C505" s="2">
-        <v>10969884321</v>
+        <v>11210521407</v>
       </c>
       <c r="D505" s="3">
-        <v>2819</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,13 +8993,13 @@
         <v>508</v>
       </c>
       <c r="B506" s="2">
-        <v>219.05</v>
+        <v>215.34</v>
       </c>
       <c r="C506" s="2">
-        <v>103359926276</v>
+        <v>101719553363</v>
       </c>
       <c r="D506" s="3">
-        <v>903</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
